--- a/trend_results/Rivers/WhangaehuatKauangaroa_a8357d22ce.xlsx
+++ b/trend_results/Rivers/WhangaehuatKauangaroa_a8357d22ce.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:W26"/>
+  <dimension ref="A1:W37"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -441,7 +441,7 @@
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>variable</t>
+          <t>parameter name</t>
         </is>
       </c>
       <c r="C1" s="1" t="inlineStr">
@@ -573,7 +573,7 @@
         </is>
       </c>
       <c r="F2" t="n">
-        <v>0.529544511386084</v>
+        <v>0.470455488613916</v>
       </c>
       <c r="G2" t="n">
         <v>0</v>
@@ -1119,7 +1119,7 @@
         </is>
       </c>
       <c r="F8" t="n">
-        <v>0.852313910334348</v>
+        <v>0.147686089665652</v>
       </c>
       <c r="G8" t="n">
         <v>0</v>
@@ -1152,7 +1152,7 @@
       </c>
       <c r="P8" t="inlineStr">
         <is>
-          <t>Likely increasing</t>
+          <t>Unlikely increasing</t>
         </is>
       </c>
       <c r="Q8" t="n">
@@ -1752,7 +1752,7 @@
         </is>
       </c>
       <c r="F15" t="n">
-        <v>0.243591414684551</v>
+        <v>0.756408585315449</v>
       </c>
       <c r="G15" t="n">
         <v>0</v>
@@ -1785,7 +1785,7 @@
       </c>
       <c r="P15" t="inlineStr">
         <is>
-          <t>Unlikely increasing</t>
+          <t>Likely increasing</t>
         </is>
       </c>
       <c r="Q15" t="n">
@@ -2298,7 +2298,7 @@
         </is>
       </c>
       <c r="F21" t="n">
-        <v>0.5326907274104929</v>
+        <v>0.467309272589507</v>
       </c>
       <c r="G21" t="n">
         <v>0</v>
@@ -2812,6 +2812,1003 @@
         </is>
       </c>
       <c r="W26" t="inlineStr">
+        <is>
+          <t>NTU/FNU</t>
+        </is>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="inlineStr">
+        <is>
+          <t>Whangaehu at Kauangaroa</t>
+        </is>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>Dissolved Oxygen Concentration</t>
+        </is>
+      </c>
+      <c r="C27" t="n">
+        <v>15</v>
+      </c>
+      <c r="D27" t="b">
+        <v>1</v>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>ok</t>
+        </is>
+      </c>
+      <c r="F27" t="n">
+        <v>0.611209017085836</v>
+      </c>
+      <c r="G27" t="n">
+        <v>0</v>
+      </c>
+      <c r="H27" t="n">
+        <v>0.8271604938271609</v>
+      </c>
+      <c r="I27" t="n">
+        <v>0</v>
+      </c>
+      <c r="J27" t="n">
+        <v>9.890000000000001</v>
+      </c>
+      <c r="K27" t="n">
+        <v>0.0015346766887137</v>
+      </c>
+      <c r="L27" t="n">
+        <v>-0.0173484972575942</v>
+      </c>
+      <c r="M27" t="n">
+        <v>0.0199964317859239</v>
+      </c>
+      <c r="N27" t="n">
+        <v>0.0155174589354276</v>
+      </c>
+      <c r="O27" t="inlineStr">
+        <is>
+          <t>RepSite</t>
+        </is>
+      </c>
+      <c r="P27" t="inlineStr">
+        <is>
+          <t>As likely as not increasing</t>
+        </is>
+      </c>
+      <c r="Q27" t="n">
+        <v>1794370</v>
+      </c>
+      <c r="R27" t="n">
+        <v>5578002</v>
+      </c>
+      <c r="S27" t="inlineStr">
+        <is>
+          <t>Whanganui District</t>
+        </is>
+      </c>
+      <c r="T27" t="inlineStr">
+        <is>
+          <t>Whangaehu</t>
+        </is>
+      </c>
+      <c r="U27" t="inlineStr">
+        <is>
+          <t>Lower Whangaehu</t>
+        </is>
+      </c>
+      <c r="V27" t="inlineStr">
+        <is>
+          <t>Whau_3a</t>
+        </is>
+      </c>
+      <c r="W27" t="inlineStr">
+        <is>
+          <t>g/m3</t>
+        </is>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="inlineStr">
+        <is>
+          <t>Whangaehu at Kauangaroa</t>
+        </is>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>Dissolved Reactive Phosphorus</t>
+        </is>
+      </c>
+      <c r="C28" t="n">
+        <v>15</v>
+      </c>
+      <c r="D28" t="b">
+        <v>0</v>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>WARNING: Sen slope influenced by censored values</t>
+        </is>
+      </c>
+      <c r="F28" t="n">
+        <v>3.19189155360802e-05</v>
+      </c>
+      <c r="G28" t="n">
+        <v>0.168674698795181</v>
+      </c>
+      <c r="H28" t="n">
+        <v>0.174698795180723</v>
+      </c>
+      <c r="I28" t="n">
+        <v>1</v>
+      </c>
+      <c r="J28" t="n">
+        <v>0.011</v>
+      </c>
+      <c r="K28" t="n">
+        <v>0.0005494734682713</v>
+      </c>
+      <c r="L28" t="n">
+        <v>0.0002959637799693</v>
+      </c>
+      <c r="M28" t="n">
+        <v>0.0008066689552151</v>
+      </c>
+      <c r="N28" t="n">
+        <v>4.99521334792123</v>
+      </c>
+      <c r="O28" t="inlineStr">
+        <is>
+          <t>RepSite</t>
+        </is>
+      </c>
+      <c r="P28" t="inlineStr">
+        <is>
+          <t>Exceptionally unlikely improving</t>
+        </is>
+      </c>
+      <c r="Q28" t="n">
+        <v>1794370</v>
+      </c>
+      <c r="R28" t="n">
+        <v>5578002</v>
+      </c>
+      <c r="S28" t="inlineStr">
+        <is>
+          <t>Whanganui District</t>
+        </is>
+      </c>
+      <c r="T28" t="inlineStr">
+        <is>
+          <t>Whangaehu</t>
+        </is>
+      </c>
+      <c r="U28" t="inlineStr">
+        <is>
+          <t>Lower Whangaehu</t>
+        </is>
+      </c>
+      <c r="V28" t="inlineStr">
+        <is>
+          <t>Whau_3a</t>
+        </is>
+      </c>
+      <c r="W28" t="inlineStr">
+        <is>
+          <t>mg/L</t>
+        </is>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="inlineStr">
+        <is>
+          <t>Whangaehu at Kauangaroa</t>
+        </is>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>E. coli</t>
+        </is>
+      </c>
+      <c r="C29" t="n">
+        <v>15</v>
+      </c>
+      <c r="D29" t="b">
+        <v>1</v>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>WARNING: Sen slope influenced by censored values</t>
+        </is>
+      </c>
+      <c r="F29" t="n">
+        <v>0.998352918825906</v>
+      </c>
+      <c r="G29" t="n">
+        <v>0.096969696969697</v>
+      </c>
+      <c r="H29" t="n">
+        <v>0.648484848484848</v>
+      </c>
+      <c r="I29" t="n">
+        <v>1</v>
+      </c>
+      <c r="J29" t="n">
+        <v>130</v>
+      </c>
+      <c r="K29" t="n">
+        <v>-5.60537133461222</v>
+      </c>
+      <c r="L29" t="n">
+        <v>-10.918337745576</v>
+      </c>
+      <c r="M29" t="n">
+        <v>-1.66528385595019</v>
+      </c>
+      <c r="N29" t="n">
+        <v>-4.31182410354786</v>
+      </c>
+      <c r="O29" t="inlineStr">
+        <is>
+          <t>RepSite</t>
+        </is>
+      </c>
+      <c r="P29" t="inlineStr">
+        <is>
+          <t>Virtually certain improving</t>
+        </is>
+      </c>
+      <c r="Q29" t="n">
+        <v>1794370</v>
+      </c>
+      <c r="R29" t="n">
+        <v>5578002</v>
+      </c>
+      <c r="S29" t="inlineStr">
+        <is>
+          <t>Whanganui District</t>
+        </is>
+      </c>
+      <c r="T29" t="inlineStr">
+        <is>
+          <t>Whangaehu</t>
+        </is>
+      </c>
+      <c r="U29" t="inlineStr">
+        <is>
+          <t>Lower Whangaehu</t>
+        </is>
+      </c>
+      <c r="V29" t="inlineStr">
+        <is>
+          <t>Whau_3a</t>
+        </is>
+      </c>
+      <c r="W29" t="inlineStr">
+        <is>
+          <t>E. coli/100 mL</t>
+        </is>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="inlineStr">
+        <is>
+          <t>Whangaehu at Kauangaroa</t>
+        </is>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>Ammoniacal Nitrogen (NH4)</t>
+        </is>
+      </c>
+      <c r="C30" t="n">
+        <v>15</v>
+      </c>
+      <c r="D30" t="b">
+        <v>0</v>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>WARNING: Sen slope influenced by censored values</t>
+        </is>
+      </c>
+      <c r="F30" t="n">
+        <v>0.0198882821668944</v>
+      </c>
+      <c r="G30" t="n">
+        <v>0.620253164556962</v>
+      </c>
+      <c r="H30" t="n">
+        <v>0.316455696202532</v>
+      </c>
+      <c r="I30" t="n">
+        <v>3</v>
+      </c>
+      <c r="J30" t="n">
+        <v>0.005</v>
+      </c>
+      <c r="K30" t="n">
+        <v>0</v>
+      </c>
+      <c r="L30" t="n">
+        <v>0</v>
+      </c>
+      <c r="M30" t="n">
+        <v>0</v>
+      </c>
+      <c r="N30" t="n">
+        <v>0</v>
+      </c>
+      <c r="O30" t="inlineStr">
+        <is>
+          <t>RepSite</t>
+        </is>
+      </c>
+      <c r="P30" t="inlineStr">
+        <is>
+          <t>Extremely unlikely improving</t>
+        </is>
+      </c>
+      <c r="Q30" t="n">
+        <v>1794370</v>
+      </c>
+      <c r="R30" t="n">
+        <v>5578002</v>
+      </c>
+      <c r="S30" t="inlineStr">
+        <is>
+          <t>Whanganui District</t>
+        </is>
+      </c>
+      <c r="T30" t="inlineStr">
+        <is>
+          <t>Whangaehu</t>
+        </is>
+      </c>
+      <c r="U30" t="inlineStr">
+        <is>
+          <t>Lower Whangaehu</t>
+        </is>
+      </c>
+      <c r="V30" t="inlineStr">
+        <is>
+          <t>Whau_3a</t>
+        </is>
+      </c>
+      <c r="W30" t="inlineStr">
+        <is>
+          <t>mg/L</t>
+        </is>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="inlineStr">
+        <is>
+          <t>Whangaehu at Kauangaroa</t>
+        </is>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>Nitrite Nitrogen (NO2)</t>
+        </is>
+      </c>
+      <c r="C31" t="n">
+        <v>15</v>
+      </c>
+      <c r="D31" t="b">
+        <v>1</v>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>WARNING: Sen slope influenced by censored values</t>
+        </is>
+      </c>
+      <c r="F31" t="n">
+        <v>0.0509116201090942</v>
+      </c>
+      <c r="G31" t="n">
+        <v>0.455128205128205</v>
+      </c>
+      <c r="H31" t="n">
+        <v>0.0961538461538462</v>
+      </c>
+      <c r="I31" t="n">
+        <v>2</v>
+      </c>
+      <c r="J31" t="n">
+        <v>0.002</v>
+      </c>
+      <c r="K31" t="n">
+        <v>0</v>
+      </c>
+      <c r="L31" t="n">
+        <v>0</v>
+      </c>
+      <c r="M31" t="n">
+        <v>0</v>
+      </c>
+      <c r="N31" t="n">
+        <v>0</v>
+      </c>
+      <c r="O31" t="inlineStr">
+        <is>
+          <t>RepSite</t>
+        </is>
+      </c>
+      <c r="P31" t="inlineStr">
+        <is>
+          <t>Very unlikely improving</t>
+        </is>
+      </c>
+      <c r="Q31" t="n">
+        <v>1794370</v>
+      </c>
+      <c r="R31" t="n">
+        <v>5578002</v>
+      </c>
+      <c r="S31" t="inlineStr">
+        <is>
+          <t>Whanganui District</t>
+        </is>
+      </c>
+      <c r="T31" t="inlineStr">
+        <is>
+          <t>Whangaehu</t>
+        </is>
+      </c>
+      <c r="U31" t="inlineStr">
+        <is>
+          <t>Lower Whangaehu</t>
+        </is>
+      </c>
+      <c r="V31" t="inlineStr">
+        <is>
+          <t>Whau_3a</t>
+        </is>
+      </c>
+      <c r="W31" t="inlineStr">
+        <is>
+          <t>mg/L</t>
+        </is>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="inlineStr">
+        <is>
+          <t>Whangaehu at Kauangaroa</t>
+        </is>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>Nitrate Nitrogen (NO3)</t>
+        </is>
+      </c>
+      <c r="C32" t="n">
+        <v>15</v>
+      </c>
+      <c r="D32" t="b">
+        <v>1</v>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>ok</t>
+        </is>
+      </c>
+      <c r="F32" t="n">
+        <v>0.0037466796152199</v>
+      </c>
+      <c r="G32" t="n">
+        <v>0.0064102564102564</v>
+      </c>
+      <c r="H32" t="n">
+        <v>0.923076923076923</v>
+      </c>
+      <c r="I32" t="n">
+        <v>1</v>
+      </c>
+      <c r="J32" t="n">
+        <v>0.21</v>
+      </c>
+      <c r="K32" t="n">
+        <v>0.0041676175262437</v>
+      </c>
+      <c r="L32" t="n">
+        <v>0.0021562893616595</v>
+      </c>
+      <c r="M32" t="n">
+        <v>0.008786859973804</v>
+      </c>
+      <c r="N32" t="n">
+        <v>1.98457977440177</v>
+      </c>
+      <c r="O32" t="inlineStr">
+        <is>
+          <t>RepSite</t>
+        </is>
+      </c>
+      <c r="P32" t="inlineStr">
+        <is>
+          <t>Exceptionally unlikely improving</t>
+        </is>
+      </c>
+      <c r="Q32" t="n">
+        <v>1794370</v>
+      </c>
+      <c r="R32" t="n">
+        <v>5578002</v>
+      </c>
+      <c r="S32" t="inlineStr">
+        <is>
+          <t>Whanganui District</t>
+        </is>
+      </c>
+      <c r="T32" t="inlineStr">
+        <is>
+          <t>Whangaehu</t>
+        </is>
+      </c>
+      <c r="U32" t="inlineStr">
+        <is>
+          <t>Lower Whangaehu</t>
+        </is>
+      </c>
+      <c r="V32" t="inlineStr">
+        <is>
+          <t>Whau_3a</t>
+        </is>
+      </c>
+      <c r="W32" t="inlineStr">
+        <is>
+          <t>mg/L</t>
+        </is>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="inlineStr">
+        <is>
+          <t>Whangaehu at Kauangaroa</t>
+        </is>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>pH</t>
+        </is>
+      </c>
+      <c r="C33" t="n">
+        <v>15</v>
+      </c>
+      <c r="D33" t="b">
+        <v>1</v>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>ok</t>
+        </is>
+      </c>
+      <c r="F33" t="n">
+        <v>0.043699193265882</v>
+      </c>
+      <c r="G33" t="n">
+        <v>0</v>
+      </c>
+      <c r="H33" t="n">
+        <v>0.739130434782609</v>
+      </c>
+      <c r="I33" t="n">
+        <v>0</v>
+      </c>
+      <c r="J33" t="n">
+        <v>7.26</v>
+      </c>
+      <c r="K33" t="n">
+        <v>-0.0210550667475728</v>
+      </c>
+      <c r="L33" t="n">
+        <v>-0.0449633447528</v>
+      </c>
+      <c r="M33" t="n">
+        <v>-0.0011499460963254</v>
+      </c>
+      <c r="N33" t="n">
+        <v>-0.290014693492738</v>
+      </c>
+      <c r="O33" t="inlineStr">
+        <is>
+          <t>RepSite</t>
+        </is>
+      </c>
+      <c r="P33" t="inlineStr">
+        <is>
+          <t>Extremely unlikely increasing</t>
+        </is>
+      </c>
+      <c r="Q33" t="n">
+        <v>1794370</v>
+      </c>
+      <c r="R33" t="n">
+        <v>5578002</v>
+      </c>
+      <c r="S33" t="inlineStr">
+        <is>
+          <t>Whanganui District</t>
+        </is>
+      </c>
+      <c r="T33" t="inlineStr">
+        <is>
+          <t>Whangaehu</t>
+        </is>
+      </c>
+      <c r="U33" t="inlineStr">
+        <is>
+          <t>Lower Whangaehu</t>
+        </is>
+      </c>
+      <c r="V33" t="inlineStr">
+        <is>
+          <t>Whau_3a</t>
+        </is>
+      </c>
+      <c r="W33" t="inlineStr"/>
+    </row>
+    <row r="34">
+      <c r="A34" t="inlineStr">
+        <is>
+          <t>Whangaehu at Kauangaroa</t>
+        </is>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>SIN (Soluble Inorganic nitrogen)</t>
+        </is>
+      </c>
+      <c r="C34" t="n">
+        <v>15</v>
+      </c>
+      <c r="D34" t="b">
+        <v>1</v>
+      </c>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>ok</t>
+        </is>
+      </c>
+      <c r="F34" t="n">
+        <v>0.0003096252245752</v>
+      </c>
+      <c r="G34" t="n">
+        <v>0</v>
+      </c>
+      <c r="H34" t="n">
+        <v>0.855421686746988</v>
+      </c>
+      <c r="I34" t="n">
+        <v>0</v>
+      </c>
+      <c r="J34" t="n">
+        <v>0.2365</v>
+      </c>
+      <c r="K34" t="n">
+        <v>0.0070075758713942</v>
+      </c>
+      <c r="L34" t="n">
+        <v>0.0038857997370749</v>
+      </c>
+      <c r="M34" t="n">
+        <v>0.0110025102692834</v>
+      </c>
+      <c r="N34" t="n">
+        <v>2.9630341950927</v>
+      </c>
+      <c r="O34" t="inlineStr">
+        <is>
+          <t>RepSite</t>
+        </is>
+      </c>
+      <c r="P34" t="inlineStr">
+        <is>
+          <t>Exceptionally unlikely improving</t>
+        </is>
+      </c>
+      <c r="Q34" t="n">
+        <v>1794370</v>
+      </c>
+      <c r="R34" t="n">
+        <v>5578002</v>
+      </c>
+      <c r="S34" t="inlineStr">
+        <is>
+          <t>Whanganui District</t>
+        </is>
+      </c>
+      <c r="T34" t="inlineStr">
+        <is>
+          <t>Whangaehu</t>
+        </is>
+      </c>
+      <c r="U34" t="inlineStr">
+        <is>
+          <t>Lower Whangaehu</t>
+        </is>
+      </c>
+      <c r="V34" t="inlineStr">
+        <is>
+          <t>Whau_3a</t>
+        </is>
+      </c>
+      <c r="W34" t="inlineStr">
+        <is>
+          <t>g/m3</t>
+        </is>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="inlineStr">
+        <is>
+          <t>Whangaehu at Kauangaroa</t>
+        </is>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>Total Nitrogen</t>
+        </is>
+      </c>
+      <c r="C35" t="n">
+        <v>15</v>
+      </c>
+      <c r="D35" t="b">
+        <v>1</v>
+      </c>
+      <c r="E35" t="inlineStr">
+        <is>
+          <t>ok</t>
+        </is>
+      </c>
+      <c r="F35" t="n">
+        <v>0.702248614520008</v>
+      </c>
+      <c r="G35" t="n">
+        <v>0.0060240963855421</v>
+      </c>
+      <c r="H35" t="n">
+        <v>0.662650602409639</v>
+      </c>
+      <c r="I35" t="n">
+        <v>1</v>
+      </c>
+      <c r="J35" t="n">
+        <v>0.478</v>
+      </c>
+      <c r="K35" t="n">
+        <v>-0.0018352110495286</v>
+      </c>
+      <c r="L35" t="n">
+        <v>-0.0072729795795358</v>
+      </c>
+      <c r="M35" t="n">
+        <v>0.0045303583025399</v>
+      </c>
+      <c r="N35" t="n">
+        <v>-0.383935366010173</v>
+      </c>
+      <c r="O35" t="inlineStr">
+        <is>
+          <t>RepSite</t>
+        </is>
+      </c>
+      <c r="P35" t="inlineStr">
+        <is>
+          <t>Likely improving</t>
+        </is>
+      </c>
+      <c r="Q35" t="n">
+        <v>1794370</v>
+      </c>
+      <c r="R35" t="n">
+        <v>5578002</v>
+      </c>
+      <c r="S35" t="inlineStr">
+        <is>
+          <t>Whanganui District</t>
+        </is>
+      </c>
+      <c r="T35" t="inlineStr">
+        <is>
+          <t>Whangaehu</t>
+        </is>
+      </c>
+      <c r="U35" t="inlineStr">
+        <is>
+          <t>Lower Whangaehu</t>
+        </is>
+      </c>
+      <c r="V35" t="inlineStr">
+        <is>
+          <t>Whau_3a</t>
+        </is>
+      </c>
+      <c r="W35" t="inlineStr">
+        <is>
+          <t>g/m3</t>
+        </is>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="inlineStr">
+        <is>
+          <t>Whangaehu at Kauangaroa</t>
+        </is>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>Total Phosphorus</t>
+        </is>
+      </c>
+      <c r="C36" t="n">
+        <v>15</v>
+      </c>
+      <c r="D36" t="b">
+        <v>0</v>
+      </c>
+      <c r="E36" t="inlineStr">
+        <is>
+          <t>WARNING: Sen slope based on tied non-censored values</t>
+        </is>
+      </c>
+      <c r="F36" t="n">
+        <v>0.467719121333127</v>
+      </c>
+      <c r="G36" t="n">
+        <v>0</v>
+      </c>
+      <c r="H36" t="n">
+        <v>0.63855421686747</v>
+      </c>
+      <c r="I36" t="n">
+        <v>0</v>
+      </c>
+      <c r="J36" t="n">
+        <v>0.0675</v>
+      </c>
+      <c r="K36" t="n">
+        <v>0</v>
+      </c>
+      <c r="L36" t="n">
+        <v>-0.0012308780519941</v>
+      </c>
+      <c r="M36" t="n">
+        <v>0.001332993191396</v>
+      </c>
+      <c r="N36" t="n">
+        <v>0</v>
+      </c>
+      <c r="O36" t="inlineStr">
+        <is>
+          <t>RepSite</t>
+        </is>
+      </c>
+      <c r="P36" t="inlineStr">
+        <is>
+          <t>As likely as not improving</t>
+        </is>
+      </c>
+      <c r="Q36" t="n">
+        <v>1794370</v>
+      </c>
+      <c r="R36" t="n">
+        <v>5578002</v>
+      </c>
+      <c r="S36" t="inlineStr">
+        <is>
+          <t>Whanganui District</t>
+        </is>
+      </c>
+      <c r="T36" t="inlineStr">
+        <is>
+          <t>Whangaehu</t>
+        </is>
+      </c>
+      <c r="U36" t="inlineStr">
+        <is>
+          <t>Lower Whangaehu</t>
+        </is>
+      </c>
+      <c r="V36" t="inlineStr">
+        <is>
+          <t>Whau_3a</t>
+        </is>
+      </c>
+      <c r="W36" t="inlineStr">
+        <is>
+          <t>g/m3</t>
+        </is>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="inlineStr">
+        <is>
+          <t>Whangaehu at Kauangaroa</t>
+        </is>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>Turbidity</t>
+        </is>
+      </c>
+      <c r="C37" t="n">
+        <v>15</v>
+      </c>
+      <c r="D37" t="b">
+        <v>0</v>
+      </c>
+      <c r="E37" t="inlineStr">
+        <is>
+          <t>ok</t>
+        </is>
+      </c>
+      <c r="F37" t="n">
+        <v>0.861360614936588</v>
+      </c>
+      <c r="G37" t="n">
+        <v>0</v>
+      </c>
+      <c r="H37" t="n">
+        <v>0.91566265060241</v>
+      </c>
+      <c r="I37" t="n">
+        <v>0</v>
+      </c>
+      <c r="J37" t="n">
+        <v>27.3</v>
+      </c>
+      <c r="K37" t="n">
+        <v>-0.433853006681514</v>
+      </c>
+      <c r="L37" t="n">
+        <v>-1.15302799819329</v>
+      </c>
+      <c r="M37" t="n">
+        <v>0.245426483043599</v>
+      </c>
+      <c r="N37" t="n">
+        <v>-1.58920515267954</v>
+      </c>
+      <c r="O37" t="inlineStr">
+        <is>
+          <t>RepSite</t>
+        </is>
+      </c>
+      <c r="P37" t="inlineStr">
+        <is>
+          <t>Likely improving</t>
+        </is>
+      </c>
+      <c r="Q37" t="n">
+        <v>1794370</v>
+      </c>
+      <c r="R37" t="n">
+        <v>5578002</v>
+      </c>
+      <c r="S37" t="inlineStr">
+        <is>
+          <t>Whanganui District</t>
+        </is>
+      </c>
+      <c r="T37" t="inlineStr">
+        <is>
+          <t>Whangaehu</t>
+        </is>
+      </c>
+      <c r="U37" t="inlineStr">
+        <is>
+          <t>Lower Whangaehu</t>
+        </is>
+      </c>
+      <c r="V37" t="inlineStr">
+        <is>
+          <t>Whau_3a</t>
+        </is>
+      </c>
+      <c r="W37" t="inlineStr">
         <is>
           <t>NTU/FNU</t>
         </is>

--- a/trend_results/Rivers/WhangaehuatKauangaroa_a8357d22ce.xlsx
+++ b/trend_results/Rivers/WhangaehuatKauangaroa_a8357d22ce.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:W37"/>
+  <dimension ref="A1:W36"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -569,35 +569,35 @@
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>ok</t>
+          <t>WARNING: Sen slope based on tied non-censored values</t>
         </is>
       </c>
       <c r="F2" t="n">
-        <v>0.470455488613916</v>
+        <v>0.5</v>
       </c>
       <c r="G2" t="n">
         <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>0.913793103448276</v>
+        <v>0.946428571428571</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>10.04</v>
+        <v>10.155</v>
       </c>
       <c r="K2" t="n">
-        <v>-0.0033174386920983</v>
+        <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>-0.0830610223051397</v>
+        <v>-0.0848427207161634</v>
       </c>
       <c r="M2" t="n">
-        <v>0.0537414210376074</v>
+        <v>0.0580364502751967</v>
       </c>
       <c r="N2" t="n">
-        <v>-0.033042218048788</v>
+        <v>0</v>
       </c>
       <c r="O2" t="inlineStr">
         <is>
@@ -664,31 +664,31 @@
         </is>
       </c>
       <c r="F3" t="n">
-        <v>0.874204993401271</v>
+        <v>0.819674470978541</v>
       </c>
       <c r="G3" t="n">
         <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>0.457627118644068</v>
+        <v>0.431034482758621</v>
       </c>
       <c r="I3" t="n">
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>0.014</v>
+        <v>0.011</v>
       </c>
       <c r="K3" t="n">
-        <v>-0.0009192533557046</v>
+        <v>-0.0006057213930347999</v>
       </c>
       <c r="L3" t="n">
-        <v>-0.0022333295054508</v>
+        <v>-0.0017204154735029</v>
       </c>
       <c r="M3" t="n">
-        <v>0.0003225162542121</v>
+        <v>0.0004838713577095</v>
       </c>
       <c r="N3" t="n">
-        <v>-6.5660953978907</v>
+        <v>-5.50655811849842</v>
       </c>
       <c r="O3" t="inlineStr">
         <is>
@@ -751,35 +751,35 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>WARNING: Sen slope influenced by censored values</t>
+          <t>ok</t>
         </is>
       </c>
       <c r="F4" t="n">
-        <v>0.583496860882842</v>
+        <v>0.0916711322033196</v>
       </c>
       <c r="G4" t="n">
-        <v>0.220338983050847</v>
+        <v>0.210526315789474</v>
       </c>
       <c r="H4" t="n">
-        <v>0.644067796610169</v>
+        <v>0.684210526315789</v>
       </c>
       <c r="I4" t="n">
         <v>1</v>
       </c>
       <c r="J4" t="n">
-        <v>110</v>
+        <v>100</v>
       </c>
       <c r="K4" t="n">
-        <v>0</v>
+        <v>14.4461503576214</v>
       </c>
       <c r="L4" t="n">
-        <v>-21.8366684331789</v>
+        <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>13.0352855479359</v>
+        <v>48.5076632461732</v>
       </c>
       <c r="N4" t="n">
-        <v>0</v>
+        <v>14.4461503576214</v>
       </c>
       <c r="O4" t="inlineStr">
         <is>
@@ -788,7 +788,7 @@
       </c>
       <c r="P4" t="inlineStr">
         <is>
-          <t>As likely as not improving</t>
+          <t>Very unlikely improving</t>
         </is>
       </c>
       <c r="Q4" t="n">
@@ -846,19 +846,19 @@
         </is>
       </c>
       <c r="F5" t="n">
-        <v>0.164584049626024</v>
+        <v>0.0075929778656318</v>
       </c>
       <c r="G5" t="n">
-        <v>0.574074074074074</v>
+        <v>0.5</v>
       </c>
       <c r="H5" t="n">
-        <v>0.388888888888889</v>
+        <v>0.5</v>
       </c>
       <c r="I5" t="n">
         <v>2</v>
       </c>
       <c r="J5" t="n">
-        <v>0.005</v>
+        <v>0.009214993263490999</v>
       </c>
       <c r="K5" t="n">
         <v>0</v>
@@ -867,7 +867,7 @@
         <v>0</v>
       </c>
       <c r="M5" t="n">
-        <v>0</v>
+        <v>0.002182772816861</v>
       </c>
       <c r="N5" t="n">
         <v>0</v>
@@ -879,7 +879,7 @@
       </c>
       <c r="P5" t="inlineStr">
         <is>
-          <t>Unlikely improving</t>
+          <t>Exceptionally unlikely improving</t>
         </is>
       </c>
       <c r="Q5" t="n">
@@ -937,25 +937,25 @@
         </is>
       </c>
       <c r="F6" t="n">
-        <v>0.519317558673806</v>
+        <v>0.86386029152013</v>
       </c>
       <c r="G6" t="n">
-        <v>0.440677966101695</v>
+        <v>0.431034482758621</v>
       </c>
       <c r="H6" t="n">
-        <v>0.135593220338983</v>
+        <v>0.137931034482759</v>
       </c>
       <c r="I6" t="n">
         <v>1</v>
       </c>
       <c r="J6" t="n">
-        <v>0.002</v>
+        <v>0.0025</v>
       </c>
       <c r="K6" t="n">
         <v>0</v>
       </c>
       <c r="L6" t="n">
-        <v>0</v>
+        <v>-0.0002338257893669</v>
       </c>
       <c r="M6" t="n">
         <v>0</v>
@@ -970,7 +970,7 @@
       </c>
       <c r="P6" t="inlineStr">
         <is>
-          <t>As likely as not improving</t>
+          <t>Likely improving</t>
         </is>
       </c>
       <c r="Q6" t="n">
@@ -1028,31 +1028,31 @@
         </is>
       </c>
       <c r="F7" t="n">
-        <v>0.258001467721793</v>
+        <v>0.0326627202322875</v>
       </c>
       <c r="G7" t="n">
         <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>0.949152542372881</v>
+        <v>0.9655172413793101</v>
       </c>
       <c r="I7" t="n">
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>0.217</v>
+        <v>0.2585</v>
       </c>
       <c r="K7" t="n">
-        <v>0.0062558592723066</v>
+        <v>0.0217536421223002</v>
       </c>
       <c r="L7" t="n">
-        <v>-0.003317438692098</v>
+        <v>0.001806928242116</v>
       </c>
       <c r="M7" t="n">
-        <v>0.0192306476751104</v>
+        <v>0.037111712661646</v>
       </c>
       <c r="N7" t="n">
-        <v>2.88288445728417</v>
+        <v>8.41533544382985</v>
       </c>
       <c r="O7" t="inlineStr">
         <is>
@@ -1061,7 +1061,7 @@
       </c>
       <c r="P7" t="inlineStr">
         <is>
-          <t>Unlikely improving</t>
+          <t>Extremely unlikely improving</t>
         </is>
       </c>
       <c r="Q7" t="n">
@@ -1119,31 +1119,31 @@
         </is>
       </c>
       <c r="F8" t="n">
-        <v>0.147686089665652</v>
+        <v>0.14217314175292</v>
       </c>
       <c r="G8" t="n">
         <v>0</v>
       </c>
       <c r="H8" t="n">
-        <v>0.859649122807018</v>
+        <v>0.928571428571429</v>
       </c>
       <c r="I8" t="n">
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>7.18</v>
+        <v>7.05</v>
       </c>
       <c r="K8" t="n">
-        <v>-0.0624145591250854</v>
+        <v>-0.0802747252747253</v>
       </c>
       <c r="L8" t="n">
-        <v>-0.145812419487223</v>
+        <v>-0.142531608994359</v>
       </c>
       <c r="M8" t="n">
-        <v>0.0275099717426707</v>
+        <v>0.0468422167334497</v>
       </c>
       <c r="N8" t="n">
-        <v>-0.869283553274171</v>
+        <v>-1.1386485854571</v>
       </c>
       <c r="O8" t="inlineStr">
         <is>
@@ -1206,31 +1206,31 @@
         </is>
       </c>
       <c r="F9" t="n">
-        <v>0.213639453085988</v>
+        <v>0.0162620906326638</v>
       </c>
       <c r="G9" t="n">
         <v>0</v>
       </c>
       <c r="H9" t="n">
-        <v>0.915254237288136</v>
+        <v>0.9655172413793101</v>
       </c>
       <c r="I9" t="n">
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>0.263</v>
+        <v>0.287</v>
       </c>
       <c r="K9" t="n">
-        <v>0.0108607520792736</v>
+        <v>0.030450529948579</v>
       </c>
       <c r="L9" t="n">
-        <v>-0.0128112582600181</v>
+        <v>0.007969858401828799</v>
       </c>
       <c r="M9" t="n">
-        <v>0.0259347633517863</v>
+        <v>0.0456470065261721</v>
       </c>
       <c r="N9" t="n">
-        <v>4.1295635282409</v>
+        <v>10.6099407486338</v>
       </c>
       <c r="O9" t="inlineStr">
         <is>
@@ -1239,7 +1239,7 @@
       </c>
       <c r="P9" t="inlineStr">
         <is>
-          <t>Unlikely improving</t>
+          <t>Extremely unlikely improving</t>
         </is>
       </c>
       <c r="Q9" t="n">
@@ -1282,14 +1282,14 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>Suspended Sediment Concentration</t>
+          <t>Total Nitrogen</t>
         </is>
       </c>
       <c r="C10" t="n">
         <v>5</v>
       </c>
       <c r="D10" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E10" t="inlineStr">
         <is>
@@ -1297,31 +1297,31 @@
         </is>
       </c>
       <c r="F10" t="n">
-        <v>0.588004776215461</v>
+        <v>0.0696446828434242</v>
       </c>
       <c r="G10" t="n">
-        <v>0</v>
+        <v>0.0172413793103448</v>
       </c>
       <c r="H10" t="n">
-        <v>0.796610169491525</v>
+        <v>0.810344827586207</v>
       </c>
       <c r="I10" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J10" t="n">
-        <v>50</v>
+        <v>0.49</v>
       </c>
       <c r="K10" t="n">
-        <v>-0.879414125200642</v>
+        <v>0.0374860220947884</v>
       </c>
       <c r="L10" t="n">
-        <v>-8.29076311274874</v>
+        <v>-0.0031236425471026</v>
       </c>
       <c r="M10" t="n">
-        <v>6.50589861157635</v>
+        <v>0.06683620231775669</v>
       </c>
       <c r="N10" t="n">
-        <v>-1.75882825040128</v>
+        <v>7.65020859077313</v>
       </c>
       <c r="O10" t="inlineStr">
         <is>
@@ -1330,7 +1330,7 @@
       </c>
       <c r="P10" t="inlineStr">
         <is>
-          <t>As likely as not improving</t>
+          <t>Very unlikely improving</t>
         </is>
       </c>
       <c r="Q10" t="n">
@@ -1361,7 +1361,7 @@
       </c>
       <c r="W10" t="inlineStr">
         <is>
-          <t>mg/L</t>
+          <t>g/m3</t>
         </is>
       </c>
     </row>
@@ -1373,14 +1373,14 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>Total Nitrogen</t>
+          <t>Total Phosphorus</t>
         </is>
       </c>
       <c r="C11" t="n">
         <v>5</v>
       </c>
       <c r="D11" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E11" t="inlineStr">
         <is>
@@ -1388,31 +1388,31 @@
         </is>
       </c>
       <c r="F11" t="n">
-        <v>0.74421418027808</v>
+        <v>0.0004165157081471</v>
       </c>
       <c r="G11" t="n">
-        <v>0.0169491525423729</v>
+        <v>0</v>
       </c>
       <c r="H11" t="n">
-        <v>0.76271186440678</v>
+        <v>0.827586206896552</v>
       </c>
       <c r="I11" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>0.45</v>
+        <v>0.06850000000000001</v>
       </c>
       <c r="K11" t="n">
-        <v>-0.0112748875696222</v>
+        <v>0.0115952380952381</v>
       </c>
       <c r="L11" t="n">
-        <v>-0.0311059603692166</v>
+        <v>0.0051064342822326</v>
       </c>
       <c r="M11" t="n">
-        <v>0.0207325521794735</v>
+        <v>0.0180626966132531</v>
       </c>
       <c r="N11" t="n">
-        <v>-2.50553057102715</v>
+        <v>16.9273548835592</v>
       </c>
       <c r="O11" t="inlineStr">
         <is>
@@ -1421,7 +1421,7 @@
       </c>
       <c r="P11" t="inlineStr">
         <is>
-          <t>Likely improving</t>
+          <t>Exceptionally unlikely improving</t>
         </is>
       </c>
       <c r="Q11" t="n">
@@ -1464,7 +1464,7 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>Total Phosphorus</t>
+          <t>Turbidity</t>
         </is>
       </c>
       <c r="C12" t="n">
@@ -1479,31 +1479,31 @@
         </is>
       </c>
       <c r="F12" t="n">
-        <v>0.16005228352691</v>
+        <v>0.0083089056844517</v>
       </c>
       <c r="G12" t="n">
         <v>0</v>
       </c>
       <c r="H12" t="n">
-        <v>0.864406779661017</v>
+        <v>0.931034482758621</v>
       </c>
       <c r="I12" t="n">
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>0.067</v>
+        <v>20.85</v>
       </c>
       <c r="K12" t="n">
-        <v>0.0037732438016528</v>
+        <v>4.15996569468268</v>
       </c>
       <c r="L12" t="n">
-        <v>-0.0029568018914132</v>
+        <v>1.03574735137672</v>
       </c>
       <c r="M12" t="n">
-        <v>0.0101177002771991</v>
+        <v>8.05137303130298</v>
       </c>
       <c r="N12" t="n">
-        <v>5.63170716664611</v>
+        <v>19.9518738354085</v>
       </c>
       <c r="O12" t="inlineStr">
         <is>
@@ -1512,7 +1512,7 @@
       </c>
       <c r="P12" t="inlineStr">
         <is>
-          <t>Unlikely improving</t>
+          <t>Exceptionally unlikely improving</t>
         </is>
       </c>
       <c r="Q12" t="n">
@@ -1543,7 +1543,7 @@
       </c>
       <c r="W12" t="inlineStr">
         <is>
-          <t>g/m3</t>
+          <t>NTU/FNU</t>
         </is>
       </c>
     </row>
@@ -1555,11 +1555,11 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>Turbidity</t>
+          <t>Visual Clarity</t>
         </is>
       </c>
       <c r="C13" t="n">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="D13" t="b">
         <v>0</v>
@@ -1570,31 +1570,31 @@
         </is>
       </c>
       <c r="F13" t="n">
-        <v>0.404399167199909</v>
+        <v>0.013343425584345</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>0.07526881720430111</v>
       </c>
       <c r="H13" t="n">
-        <v>0.949152542372881</v>
+        <v>0.408602150537634</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J13" t="n">
-        <v>23.3</v>
+        <v>0.2</v>
       </c>
       <c r="K13" t="n">
-        <v>0.534246268656717</v>
+        <v>-0.0125196262715613</v>
       </c>
       <c r="L13" t="n">
-        <v>-3.38901647380473</v>
+        <v>-0.0243525134244047</v>
       </c>
       <c r="M13" t="n">
-        <v>4.11487972607711</v>
+        <v>-0.001400784245555</v>
       </c>
       <c r="N13" t="n">
-        <v>2.29290244058677</v>
+        <v>-6.25981313578063</v>
       </c>
       <c r="O13" t="inlineStr">
         <is>
@@ -1603,7 +1603,7 @@
       </c>
       <c r="P13" t="inlineStr">
         <is>
-          <t>As likely as not improving</t>
+          <t>Extremely unlikely improving</t>
         </is>
       </c>
       <c r="Q13" t="n">
@@ -1634,7 +1634,7 @@
       </c>
       <c r="W13" t="inlineStr">
         <is>
-          <t>NTU/FNU</t>
+          <t>m</t>
         </is>
       </c>
     </row>
@@ -1646,14 +1646,14 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>Visual Clarity</t>
+          <t>Dissolved Oxygen Concentration</t>
         </is>
       </c>
       <c r="C14" t="n">
         <v>10</v>
       </c>
       <c r="D14" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E14" t="inlineStr">
         <is>
@@ -1661,31 +1661,31 @@
         </is>
       </c>
       <c r="F14" t="n">
-        <v>0.103407739063513</v>
+        <v>0.904592556965598</v>
       </c>
       <c r="G14" t="n">
-        <v>0.07526881720430111</v>
+        <v>0</v>
       </c>
       <c r="H14" t="n">
-        <v>0.365591397849462</v>
+        <v>0.869565217391304</v>
       </c>
       <c r="I14" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>0.22</v>
+        <v>10</v>
       </c>
       <c r="K14" t="n">
-        <v>-0.0057309001659506</v>
+        <v>0.0168373475732859</v>
       </c>
       <c r="L14" t="n">
-        <v>-0.0175095877277085</v>
+        <v>-0.0066413059846264</v>
       </c>
       <c r="M14" t="n">
-        <v>0</v>
+        <v>0.0424938975562941</v>
       </c>
       <c r="N14" t="n">
-        <v>-2.60495462088666</v>
+        <v>0.168373475732859</v>
       </c>
       <c r="O14" t="inlineStr">
         <is>
@@ -1694,7 +1694,7 @@
       </c>
       <c r="P14" t="inlineStr">
         <is>
-          <t>Unlikely improving</t>
+          <t>Very likely increasing</t>
         </is>
       </c>
       <c r="Q14" t="n">
@@ -1725,7 +1725,7 @@
       </c>
       <c r="W14" t="inlineStr">
         <is>
-          <t>m</t>
+          <t>g/m3</t>
         </is>
       </c>
     </row>
@@ -1737,14 +1737,14 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>Dissolved Oxygen Concentration</t>
+          <t>Dissolved Reactive Phosphorus</t>
         </is>
       </c>
       <c r="C15" t="n">
         <v>10</v>
       </c>
       <c r="D15" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E15" t="inlineStr">
         <is>
@@ -1752,31 +1752,31 @@
         </is>
       </c>
       <c r="F15" t="n">
-        <v>0.756408585315449</v>
+        <v>0.981340515045753</v>
       </c>
       <c r="G15" t="n">
         <v>0</v>
       </c>
       <c r="H15" t="n">
-        <v>0.829059829059829</v>
+        <v>0.254237288135593</v>
       </c>
       <c r="I15" t="n">
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>9.970000000000001</v>
+        <v>0.013</v>
       </c>
       <c r="K15" t="n">
-        <v>0.0107353699382808</v>
+        <v>-0.000487650200267</v>
       </c>
       <c r="L15" t="n">
-        <v>-0.0195732938637964</v>
+        <v>-0.0008553864168618</v>
       </c>
       <c r="M15" t="n">
-        <v>0.0443597449773855</v>
+        <v>0</v>
       </c>
       <c r="N15" t="n">
-        <v>0.107676729571523</v>
+        <v>-3.75115538666941</v>
       </c>
       <c r="O15" t="inlineStr">
         <is>
@@ -1785,7 +1785,7 @@
       </c>
       <c r="P15" t="inlineStr">
         <is>
-          <t>Likely increasing</t>
+          <t>Extremely likely improving</t>
         </is>
       </c>
       <c r="Q15" t="n">
@@ -1816,7 +1816,7 @@
       </c>
       <c r="W15" t="inlineStr">
         <is>
-          <t>g/m3</t>
+          <t>mg/L</t>
         </is>
       </c>
     </row>
@@ -1828,46 +1828,46 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>Dissolved Reactive Phosphorus</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C16" t="n">
         <v>10</v>
       </c>
       <c r="D16" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>ok</t>
+          <t>WARNING: Sen slope influenced by censored values</t>
         </is>
       </c>
       <c r="F16" t="n">
-        <v>0.942142672912659</v>
+        <v>0.650897145134216</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>0.146551724137931</v>
       </c>
       <c r="H16" t="n">
-        <v>0.260504201680672</v>
+        <v>0.612068965517241</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J16" t="n">
-        <v>0.014</v>
+        <v>98.5</v>
       </c>
       <c r="K16" t="n">
-        <v>-0.0003918991416309</v>
+        <v>0</v>
       </c>
       <c r="L16" t="n">
-        <v>-0.000794123908932</v>
+        <v>-2.43282789008617</v>
       </c>
       <c r="M16" t="n">
-        <v>0</v>
+        <v>1.99326673578827</v>
       </c>
       <c r="N16" t="n">
-        <v>-2.79927958307787</v>
+        <v>0</v>
       </c>
       <c r="O16" t="inlineStr">
         <is>
@@ -1876,7 +1876,7 @@
       </c>
       <c r="P16" t="inlineStr">
         <is>
-          <t>Very likely improving</t>
+          <t>As likely as not improving</t>
         </is>
       </c>
       <c r="Q16" t="n">
@@ -1907,7 +1907,7 @@
       </c>
       <c r="W16" t="inlineStr">
         <is>
-          <t>mg/L</t>
+          <t>E. coli/100 mL</t>
         </is>
       </c>
     </row>
@@ -1919,46 +1919,46 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>E. coli</t>
+          <t>Ammoniacal Nitrogen (NH4)</t>
         </is>
       </c>
       <c r="C17" t="n">
         <v>10</v>
       </c>
       <c r="D17" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>ok</t>
+          <t>WARNING: Sen slope influenced by censored values</t>
         </is>
       </c>
       <c r="F17" t="n">
-        <v>0.980903170210683</v>
+        <v>0.0004848889042782</v>
       </c>
       <c r="G17" t="n">
-        <v>0.127118644067797</v>
+        <v>0.571428571428571</v>
       </c>
       <c r="H17" t="n">
-        <v>0.635593220338983</v>
+        <v>0.330357142857143</v>
       </c>
       <c r="I17" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J17" t="n">
-        <v>113.5</v>
+        <v>0.005</v>
       </c>
       <c r="K17" t="n">
-        <v>-3.77515529806413</v>
+        <v>0</v>
       </c>
       <c r="L17" t="n">
-        <v>-12.6729324646878</v>
+        <v>0</v>
       </c>
       <c r="M17" t="n">
         <v>0</v>
       </c>
       <c r="N17" t="n">
-        <v>-3.32612801591554</v>
+        <v>0</v>
       </c>
       <c r="O17" t="inlineStr">
         <is>
@@ -1967,7 +1967,7 @@
       </c>
       <c r="P17" t="inlineStr">
         <is>
-          <t>Extremely likely improving</t>
+          <t>Exceptionally unlikely improving</t>
         </is>
       </c>
       <c r="Q17" t="n">
@@ -1998,7 +1998,7 @@
       </c>
       <c r="W17" t="inlineStr">
         <is>
-          <t>E. coli/100 mL</t>
+          <t>mg/L</t>
         </is>
       </c>
     </row>
@@ -2010,7 +2010,7 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>Ammoniacal Nitrogen (NH4)</t>
+          <t>Nitrite Nitrogen (NO2)</t>
         </is>
       </c>
       <c r="C18" t="n">
@@ -2025,19 +2025,19 @@
         </is>
       </c>
       <c r="F18" t="n">
-        <v>0.0720084792992729</v>
+        <v>0.845507925899335</v>
       </c>
       <c r="G18" t="n">
-        <v>0.598214285714286</v>
+        <v>0.38135593220339</v>
       </c>
       <c r="H18" t="n">
-        <v>0.321428571428571</v>
+        <v>0.11864406779661</v>
       </c>
       <c r="I18" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="J18" t="n">
-        <v>0.005</v>
+        <v>0.002</v>
       </c>
       <c r="K18" t="n">
         <v>0</v>
@@ -2058,7 +2058,7 @@
       </c>
       <c r="P18" t="inlineStr">
         <is>
-          <t>Very unlikely improving</t>
+          <t>Likely improving</t>
         </is>
       </c>
       <c r="Q18" t="n">
@@ -2101,7 +2101,7 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>Nitrite Nitrogen (NO2)</t>
+          <t>Nitrate Nitrogen (NO3)</t>
         </is>
       </c>
       <c r="C19" t="n">
@@ -2112,35 +2112,35 @@
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>WARNING: Sen slope influenced by censored values</t>
+          <t>ok</t>
         </is>
       </c>
       <c r="F19" t="n">
-        <v>0.991010134107679</v>
+        <v>0.0161575330387729</v>
       </c>
       <c r="G19" t="n">
-        <v>0.327731092436975</v>
+        <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>0.126050420168067</v>
+        <v>0.940677966101695</v>
       </c>
       <c r="I19" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>0.003</v>
+        <v>0.2335</v>
       </c>
       <c r="K19" t="n">
-        <v>0</v>
+        <v>0.0066441613437983</v>
       </c>
       <c r="L19" t="n">
-        <v>0</v>
+        <v>0.0011926864666972</v>
       </c>
       <c r="M19" t="n">
-        <v>0</v>
+        <v>0.0113359196713829</v>
       </c>
       <c r="N19" t="n">
-        <v>0</v>
+        <v>2.84546524359673</v>
       </c>
       <c r="O19" t="inlineStr">
         <is>
@@ -2149,7 +2149,7 @@
       </c>
       <c r="P19" t="inlineStr">
         <is>
-          <t>Virtually certain improving</t>
+          <t>Extremely unlikely improving</t>
         </is>
       </c>
       <c r="Q19" t="n">
@@ -2192,7 +2192,7 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>Nitrate Nitrogen (NO3)</t>
+          <t>pH</t>
         </is>
       </c>
       <c r="C20" t="n">
@@ -2207,31 +2207,31 @@
         </is>
       </c>
       <c r="F20" t="n">
-        <v>0.0235381121309451</v>
+        <v>0.489100371745103</v>
       </c>
       <c r="G20" t="n">
         <v>0</v>
       </c>
       <c r="H20" t="n">
-        <v>0.9411764705882349</v>
+        <v>0.7826086956521739</v>
       </c>
       <c r="I20" t="n">
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>0.2195</v>
+        <v>7.18</v>
       </c>
       <c r="K20" t="n">
-        <v>0.0047954048140043</v>
+        <v>-0.0021367979719188</v>
       </c>
       <c r="L20" t="n">
-        <v>0.0009013653068066</v>
+        <v>-0.0519945943861777</v>
       </c>
       <c r="M20" t="n">
-        <v>0.0109845889201146</v>
+        <v>0.023498567167422</v>
       </c>
       <c r="N20" t="n">
-        <v>2.184694676084</v>
+        <v>-0.0297604174361963</v>
       </c>
       <c r="O20" t="inlineStr">
         <is>
@@ -2240,7 +2240,7 @@
       </c>
       <c r="P20" t="inlineStr">
         <is>
-          <t>Extremely unlikely improving</t>
+          <t>As likely as not increasing</t>
         </is>
       </c>
       <c r="Q20" t="n">
@@ -2269,11 +2269,7 @@
           <t>Whau_3a</t>
         </is>
       </c>
-      <c r="W20" t="inlineStr">
-        <is>
-          <t>mg/L</t>
-        </is>
-      </c>
+      <c r="W20" t="inlineStr"/>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
@@ -2283,7 +2279,7 @@
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>pH</t>
+          <t>SIN (Soluble Inorganic nitrogen)</t>
         </is>
       </c>
       <c r="C21" t="n">
@@ -2298,31 +2294,31 @@
         </is>
       </c>
       <c r="F21" t="n">
-        <v>0.467309272589507</v>
+        <v>0.0044701152300603</v>
       </c>
       <c r="G21" t="n">
         <v>0</v>
       </c>
       <c r="H21" t="n">
-        <v>0.773913043478261</v>
+        <v>0.906779661016949</v>
       </c>
       <c r="I21" t="n">
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>7.22</v>
+        <v>0.2675</v>
       </c>
       <c r="K21" t="n">
-        <v>-0.0021367979719188</v>
+        <v>0.0092632726687996</v>
       </c>
       <c r="L21" t="n">
-        <v>-0.0575671383986506</v>
+        <v>0.0031805527050292</v>
       </c>
       <c r="M21" t="n">
-        <v>0.0201286696496462</v>
+        <v>0.0148101440589268</v>
       </c>
       <c r="N21" t="n">
-        <v>-0.02959553977727</v>
+        <v>3.46290567057932</v>
       </c>
       <c r="O21" t="inlineStr">
         <is>
@@ -2331,7 +2327,7 @@
       </c>
       <c r="P21" t="inlineStr">
         <is>
-          <t>As likely as not increasing</t>
+          <t>Exceptionally unlikely improving</t>
         </is>
       </c>
       <c r="Q21" t="n">
@@ -2360,7 +2356,11 @@
           <t>Whau_3a</t>
         </is>
       </c>
-      <c r="W21" t="inlineStr"/>
+      <c r="W21" t="inlineStr">
+        <is>
+          <t>g/m3</t>
+        </is>
+      </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
@@ -2370,7 +2370,7 @@
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>SIN (Soluble Inorganic nitrogen)</t>
+          <t>Total Nitrogen</t>
         </is>
       </c>
       <c r="C22" t="n">
@@ -2381,35 +2381,35 @@
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>ok</t>
+          <t>WARNING: Sen slope based on tied non-censored values</t>
         </is>
       </c>
       <c r="F22" t="n">
-        <v>0.0161405717946905</v>
+        <v>0.5526687259941579</v>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>0.008474576271186401</v>
       </c>
       <c r="H22" t="n">
-        <v>0.890756302521008</v>
+        <v>0.6949152542372879</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J22" t="n">
-        <v>0.26</v>
+        <v>0.481</v>
       </c>
       <c r="K22" t="n">
-        <v>0.008187670858392501</v>
+        <v>0</v>
       </c>
       <c r="L22" t="n">
-        <v>0.0015975819566807</v>
+        <v>-0.0083367531013785</v>
       </c>
       <c r="M22" t="n">
-        <v>0.0139713180122801</v>
+        <v>0.008547716867835699</v>
       </c>
       <c r="N22" t="n">
-        <v>3.14910417630483</v>
+        <v>0</v>
       </c>
       <c r="O22" t="inlineStr">
         <is>
@@ -2418,7 +2418,7 @@
       </c>
       <c r="P22" t="inlineStr">
         <is>
-          <t>Extremely unlikely improving</t>
+          <t>As likely as not improving</t>
         </is>
       </c>
       <c r="Q22" t="n">
@@ -2461,7 +2461,7 @@
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>Suspended Sediment Concentration</t>
+          <t>Total Phosphorus</t>
         </is>
       </c>
       <c r="C23" t="n">
@@ -2476,31 +2476,31 @@
         </is>
       </c>
       <c r="F23" t="n">
-        <v>0.932302566652673</v>
+        <v>0.0344362073927904</v>
       </c>
       <c r="G23" t="n">
         <v>0</v>
       </c>
       <c r="H23" t="n">
-        <v>0.722689075630252</v>
+        <v>0.686440677966102</v>
       </c>
       <c r="I23" t="n">
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>59</v>
+        <v>0.0645</v>
       </c>
       <c r="K23" t="n">
-        <v>-2.36970155709343</v>
+        <v>0.0020417701863354</v>
       </c>
       <c r="L23" t="n">
-        <v>-5.41976705784189</v>
+        <v>0.0001643784134073</v>
       </c>
       <c r="M23" t="n">
-        <v>0.146566168067847</v>
+        <v>0.0042692028781594</v>
       </c>
       <c r="N23" t="n">
-        <v>-4.0164433171075</v>
+        <v>3.16553517261303</v>
       </c>
       <c r="O23" t="inlineStr">
         <is>
@@ -2509,7 +2509,7 @@
       </c>
       <c r="P23" t="inlineStr">
         <is>
-          <t>Very likely improving</t>
+          <t>Extremely unlikely improving</t>
         </is>
       </c>
       <c r="Q23" t="n">
@@ -2540,7 +2540,7 @@
       </c>
       <c r="W23" t="inlineStr">
         <is>
-          <t>mg/L</t>
+          <t>g/m3</t>
         </is>
       </c>
     </row>
@@ -2552,14 +2552,14 @@
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>Total Nitrogen</t>
+          <t>Turbidity</t>
         </is>
       </c>
       <c r="C24" t="n">
         <v>10</v>
       </c>
       <c r="D24" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E24" t="inlineStr">
         <is>
@@ -2567,31 +2567,31 @@
         </is>
       </c>
       <c r="F24" t="n">
-        <v>0.941886583463924</v>
+        <v>0.577453233659989</v>
       </c>
       <c r="G24" t="n">
-        <v>0.008403361344537799</v>
+        <v>0</v>
       </c>
       <c r="H24" t="n">
-        <v>0.73109243697479</v>
+        <v>0.923728813559322</v>
       </c>
       <c r="I24" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>0.48</v>
+        <v>24.45</v>
       </c>
       <c r="K24" t="n">
-        <v>-0.006421978021978</v>
+        <v>-0.141719576719577</v>
       </c>
       <c r="L24" t="n">
-        <v>-0.0199458911178387</v>
+        <v>-1.24298233904125</v>
       </c>
       <c r="M24" t="n">
-        <v>0</v>
+        <v>0.961474695338545</v>
       </c>
       <c r="N24" t="n">
-        <v>-1.33791208791209</v>
+        <v>-0.579630170632216</v>
       </c>
       <c r="O24" t="inlineStr">
         <is>
@@ -2600,7 +2600,7 @@
       </c>
       <c r="P24" t="inlineStr">
         <is>
-          <t>Very likely improving</t>
+          <t>As likely as not improving</t>
         </is>
       </c>
       <c r="Q24" t="n">
@@ -2631,7 +2631,7 @@
       </c>
       <c r="W24" t="inlineStr">
         <is>
-          <t>g/m3</t>
+          <t>NTU/FNU</t>
         </is>
       </c>
     </row>
@@ -2643,46 +2643,46 @@
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>Total Phosphorus</t>
+          <t>Visual Clarity</t>
         </is>
       </c>
       <c r="C25" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="D25" t="b">
         <v>0</v>
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>ok</t>
+          <t>WARNING: Sen slope influenced by censored values</t>
         </is>
       </c>
       <c r="F25" t="n">
-        <v>0.242478764180875</v>
+        <v>0.202507565372948</v>
       </c>
       <c r="G25" t="n">
-        <v>0</v>
+        <v>0.0633802816901408</v>
       </c>
       <c r="H25" t="n">
-        <v>0.6890756302521009</v>
+        <v>0.302816901408451</v>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J25" t="n">
-        <v>0.064</v>
+        <v>0.2</v>
       </c>
       <c r="K25" t="n">
-        <v>0.0007848087666523</v>
+        <v>0</v>
       </c>
       <c r="L25" t="n">
-        <v>-0.0012435842983012</v>
+        <v>-0.0055518637825511</v>
       </c>
       <c r="M25" t="n">
-        <v>0.0027104509658399</v>
+        <v>0</v>
       </c>
       <c r="N25" t="n">
-        <v>1.22626369789429</v>
+        <v>0</v>
       </c>
       <c r="O25" t="inlineStr">
         <is>
@@ -2722,7 +2722,7 @@
       </c>
       <c r="W25" t="inlineStr">
         <is>
-          <t>g/m3</t>
+          <t>m</t>
         </is>
       </c>
     </row>
@@ -2734,14 +2734,14 @@
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>Turbidity</t>
+          <t>Dissolved Oxygen Concentration</t>
         </is>
       </c>
       <c r="C26" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="D26" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E26" t="inlineStr">
         <is>
@@ -2749,31 +2749,31 @@
         </is>
       </c>
       <c r="F26" t="n">
-        <v>0.851468597460651</v>
+        <v>0.815020520813527</v>
       </c>
       <c r="G26" t="n">
         <v>0</v>
       </c>
       <c r="H26" t="n">
-        <v>0.949579831932773</v>
+        <v>0.837209302325581</v>
       </c>
       <c r="I26" t="n">
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>25.3</v>
+        <v>9.895</v>
       </c>
       <c r="K26" t="n">
-        <v>-0.809622166246851</v>
+        <v>0.0077228581477663</v>
       </c>
       <c r="L26" t="n">
-        <v>-2.0782957968634</v>
+        <v>-0.009945000888056599</v>
       </c>
       <c r="M26" t="n">
-        <v>0.398090725780191</v>
+        <v>0.0258211941791259</v>
       </c>
       <c r="N26" t="n">
-        <v>-3.20008761362392</v>
+        <v>0.07804808638470261</v>
       </c>
       <c r="O26" t="inlineStr">
         <is>
@@ -2782,7 +2782,7 @@
       </c>
       <c r="P26" t="inlineStr">
         <is>
-          <t>Likely improving</t>
+          <t>Likely increasing</t>
         </is>
       </c>
       <c r="Q26" t="n">
@@ -2813,7 +2813,7 @@
       </c>
       <c r="W26" t="inlineStr">
         <is>
-          <t>NTU/FNU</t>
+          <t>g/m3</t>
         </is>
       </c>
     </row>
@@ -2825,46 +2825,46 @@
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>Dissolved Oxygen Concentration</t>
+          <t>Dissolved Reactive Phosphorus</t>
         </is>
       </c>
       <c r="C27" t="n">
         <v>15</v>
       </c>
       <c r="D27" t="b">
+        <v>0</v>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>WARNING: Sen slope influenced by censored values</t>
+        </is>
+      </c>
+      <c r="F27" t="n">
+        <v>0.000356759772687</v>
+      </c>
+      <c r="G27" t="n">
+        <v>0.163841807909605</v>
+      </c>
+      <c r="H27" t="n">
+        <v>0.163841807909605</v>
+      </c>
+      <c r="I27" t="n">
         <v>1</v>
       </c>
-      <c r="E27" t="inlineStr">
-        <is>
-          <t>ok</t>
-        </is>
-      </c>
-      <c r="F27" t="n">
-        <v>0.611209017085836</v>
-      </c>
-      <c r="G27" t="n">
-        <v>0</v>
-      </c>
-      <c r="H27" t="n">
-        <v>0.8271604938271609</v>
-      </c>
-      <c r="I27" t="n">
-        <v>0</v>
-      </c>
       <c r="J27" t="n">
-        <v>9.890000000000001</v>
+        <v>0.011</v>
       </c>
       <c r="K27" t="n">
-        <v>0.0015346766887137</v>
+        <v>0.0003883867627219</v>
       </c>
       <c r="L27" t="n">
-        <v>-0.0173484972575942</v>
+        <v>0.0001897168440998</v>
       </c>
       <c r="M27" t="n">
-        <v>0.0199964317859239</v>
+        <v>0.0006062403845531001</v>
       </c>
       <c r="N27" t="n">
-        <v>0.0155174589354276</v>
+        <v>3.53078875201752</v>
       </c>
       <c r="O27" t="inlineStr">
         <is>
@@ -2873,7 +2873,7 @@
       </c>
       <c r="P27" t="inlineStr">
         <is>
-          <t>As likely as not increasing</t>
+          <t>Exceptionally unlikely improving</t>
         </is>
       </c>
       <c r="Q27" t="n">
@@ -2904,7 +2904,7 @@
       </c>
       <c r="W27" t="inlineStr">
         <is>
-          <t>g/m3</t>
+          <t>mg/L</t>
         </is>
       </c>
     </row>
@@ -2916,46 +2916,46 @@
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>Dissolved Reactive Phosphorus</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C28" t="n">
         <v>15</v>
       </c>
       <c r="D28" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>WARNING: Sen slope influenced by censored values</t>
+          <t>ok</t>
         </is>
       </c>
       <c r="F28" t="n">
-        <v>3.19189155360802e-05</v>
+        <v>0.996147633263134</v>
       </c>
       <c r="G28" t="n">
-        <v>0.168674698795181</v>
+        <v>0.102857142857143</v>
       </c>
       <c r="H28" t="n">
-        <v>0.174698795180723</v>
+        <v>0.645714285714286</v>
       </c>
       <c r="I28" t="n">
         <v>1</v>
       </c>
       <c r="J28" t="n">
-        <v>0.011</v>
+        <v>130</v>
       </c>
       <c r="K28" t="n">
-        <v>0.0005494734682713</v>
+        <v>-3.82777164920022</v>
       </c>
       <c r="L28" t="n">
-        <v>0.0002959637799693</v>
+        <v>-8.82154190359277</v>
       </c>
       <c r="M28" t="n">
-        <v>0.0008066689552151</v>
+        <v>-1.05241156008496</v>
       </c>
       <c r="N28" t="n">
-        <v>4.99521334792123</v>
+        <v>-2.94443973015402</v>
       </c>
       <c r="O28" t="inlineStr">
         <is>
@@ -2964,7 +2964,7 @@
       </c>
       <c r="P28" t="inlineStr">
         <is>
-          <t>Exceptionally unlikely improving</t>
+          <t>Virtually certain improving</t>
         </is>
       </c>
       <c r="Q28" t="n">
@@ -2995,7 +2995,7 @@
       </c>
       <c r="W28" t="inlineStr">
         <is>
-          <t>mg/L</t>
+          <t>E. coli/100 mL</t>
         </is>
       </c>
     </row>
@@ -3007,14 +3007,14 @@
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>E. coli</t>
+          <t>Ammoniacal Nitrogen (NH4)</t>
         </is>
       </c>
       <c r="C29" t="n">
         <v>15</v>
       </c>
       <c r="D29" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E29" t="inlineStr">
         <is>
@@ -3022,31 +3022,31 @@
         </is>
       </c>
       <c r="F29" t="n">
-        <v>0.998352918825906</v>
+        <v>0.0024010987521198</v>
       </c>
       <c r="G29" t="n">
-        <v>0.096969696969697</v>
+        <v>0.591715976331361</v>
       </c>
       <c r="H29" t="n">
-        <v>0.648484848484848</v>
+        <v>0.337278106508876</v>
       </c>
       <c r="I29" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J29" t="n">
-        <v>130</v>
+        <v>0.005</v>
       </c>
       <c r="K29" t="n">
-        <v>-5.60537133461222</v>
+        <v>0</v>
       </c>
       <c r="L29" t="n">
-        <v>-10.918337745576</v>
+        <v>0</v>
       </c>
       <c r="M29" t="n">
-        <v>-1.66528385595019</v>
+        <v>0</v>
       </c>
       <c r="N29" t="n">
-        <v>-4.31182410354786</v>
+        <v>0</v>
       </c>
       <c r="O29" t="inlineStr">
         <is>
@@ -3055,7 +3055,7 @@
       </c>
       <c r="P29" t="inlineStr">
         <is>
-          <t>Virtually certain improving</t>
+          <t>Exceptionally unlikely improving</t>
         </is>
       </c>
       <c r="Q29" t="n">
@@ -3086,7 +3086,7 @@
       </c>
       <c r="W29" t="inlineStr">
         <is>
-          <t>E. coli/100 mL</t>
+          <t>mg/L</t>
         </is>
       </c>
     </row>
@@ -3098,14 +3098,14 @@
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>Ammoniacal Nitrogen (NH4)</t>
+          <t>Nitrite Nitrogen (NO2)</t>
         </is>
       </c>
       <c r="C30" t="n">
         <v>15</v>
       </c>
       <c r="D30" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E30" t="inlineStr">
         <is>
@@ -3113,19 +3113,19 @@
         </is>
       </c>
       <c r="F30" t="n">
-        <v>0.0198882821668944</v>
+        <v>0.0795686532627046</v>
       </c>
       <c r="G30" t="n">
-        <v>0.620253164556962</v>
+        <v>0.461077844311377</v>
       </c>
       <c r="H30" t="n">
-        <v>0.316455696202532</v>
+        <v>0.0898203592814371</v>
       </c>
       <c r="I30" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="J30" t="n">
-        <v>0.005</v>
+        <v>0.002</v>
       </c>
       <c r="K30" t="n">
         <v>0</v>
@@ -3146,7 +3146,7 @@
       </c>
       <c r="P30" t="inlineStr">
         <is>
-          <t>Extremely unlikely improving</t>
+          <t>Very unlikely improving</t>
         </is>
       </c>
       <c r="Q30" t="n">
@@ -3189,7 +3189,7 @@
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>Nitrite Nitrogen (NO2)</t>
+          <t>Nitrate Nitrogen (NO3)</t>
         </is>
       </c>
       <c r="C31" t="n">
@@ -3200,35 +3200,35 @@
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>WARNING: Sen slope influenced by censored values</t>
+          <t>ok</t>
         </is>
       </c>
       <c r="F31" t="n">
-        <v>0.0509116201090942</v>
+        <v>0.0004391942482039</v>
       </c>
       <c r="G31" t="n">
-        <v>0.455128205128205</v>
+        <v>0.0059880239520958</v>
       </c>
       <c r="H31" t="n">
-        <v>0.0961538461538462</v>
+        <v>0.922155688622755</v>
       </c>
       <c r="I31" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J31" t="n">
-        <v>0.002</v>
+        <v>0.2195</v>
       </c>
       <c r="K31" t="n">
-        <v>0</v>
+        <v>0.0051371438163382</v>
       </c>
       <c r="L31" t="n">
-        <v>0</v>
+        <v>0.0027449895809742</v>
       </c>
       <c r="M31" t="n">
-        <v>0</v>
+        <v>0.0092727465955214</v>
       </c>
       <c r="N31" t="n">
-        <v>0</v>
+        <v>2.34038442657779</v>
       </c>
       <c r="O31" t="inlineStr">
         <is>
@@ -3237,7 +3237,7 @@
       </c>
       <c r="P31" t="inlineStr">
         <is>
-          <t>Very unlikely improving</t>
+          <t>Exceptionally unlikely improving</t>
         </is>
       </c>
       <c r="Q31" t="n">
@@ -3280,7 +3280,7 @@
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>Nitrate Nitrogen (NO3)</t>
+          <t>pH</t>
         </is>
       </c>
       <c r="C32" t="n">
@@ -3295,31 +3295,31 @@
         </is>
       </c>
       <c r="F32" t="n">
-        <v>0.0037466796152199</v>
+        <v>0.01851857652566</v>
       </c>
       <c r="G32" t="n">
-        <v>0.0064102564102564</v>
+        <v>0</v>
       </c>
       <c r="H32" t="n">
-        <v>0.923076923076923</v>
+        <v>0.738372093023256</v>
       </c>
       <c r="I32" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>0.21</v>
+        <v>7.245</v>
       </c>
       <c r="K32" t="n">
-        <v>0.0041676175262437</v>
+        <v>-0.020888945535511</v>
       </c>
       <c r="L32" t="n">
-        <v>0.0021562893616595</v>
+        <v>-0.0419899950090304</v>
       </c>
       <c r="M32" t="n">
-        <v>0.008786859973804</v>
+        <v>-0.0049850761723694</v>
       </c>
       <c r="N32" t="n">
-        <v>1.98457977440177</v>
+        <v>-0.288322229613679</v>
       </c>
       <c r="O32" t="inlineStr">
         <is>
@@ -3328,7 +3328,7 @@
       </c>
       <c r="P32" t="inlineStr">
         <is>
-          <t>Exceptionally unlikely improving</t>
+          <t>Extremely unlikely increasing</t>
         </is>
       </c>
       <c r="Q32" t="n">
@@ -3357,11 +3357,7 @@
           <t>Whau_3a</t>
         </is>
       </c>
-      <c r="W32" t="inlineStr">
-        <is>
-          <t>mg/L</t>
-        </is>
-      </c>
+      <c r="W32" t="inlineStr"/>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
@@ -3371,7 +3367,7 @@
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>pH</t>
+          <t>SIN (Soluble Inorganic nitrogen)</t>
         </is>
       </c>
       <c r="C33" t="n">
@@ -3386,31 +3382,31 @@
         </is>
       </c>
       <c r="F33" t="n">
-        <v>0.043699193265882</v>
+        <v>3.92603098341869e-05</v>
       </c>
       <c r="G33" t="n">
         <v>0</v>
       </c>
       <c r="H33" t="n">
-        <v>0.739130434782609</v>
+        <v>0.903954802259887</v>
       </c>
       <c r="I33" t="n">
         <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>7.26</v>
+        <v>0.25</v>
       </c>
       <c r="K33" t="n">
-        <v>-0.0210550667475728</v>
+        <v>0.007913143453118599</v>
       </c>
       <c r="L33" t="n">
-        <v>-0.0449633447528</v>
+        <v>0.0046027926415087</v>
       </c>
       <c r="M33" t="n">
-        <v>-0.0011499460963254</v>
+        <v>0.0112680092093575</v>
       </c>
       <c r="N33" t="n">
-        <v>-0.290014693492738</v>
+        <v>3.16525738124745</v>
       </c>
       <c r="O33" t="inlineStr">
         <is>
@@ -3419,7 +3415,7 @@
       </c>
       <c r="P33" t="inlineStr">
         <is>
-          <t>Extremely unlikely increasing</t>
+          <t>Exceptionally unlikely improving</t>
         </is>
       </c>
       <c r="Q33" t="n">
@@ -3448,7 +3444,11 @@
           <t>Whau_3a</t>
         </is>
       </c>
-      <c r="W33" t="inlineStr"/>
+      <c r="W33" t="inlineStr">
+        <is>
+          <t>g/m3</t>
+        </is>
+      </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
@@ -3458,7 +3458,7 @@
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>SIN (Soluble Inorganic nitrogen)</t>
+          <t>Total Nitrogen</t>
         </is>
       </c>
       <c r="C34" t="n">
@@ -3469,35 +3469,35 @@
       </c>
       <c r="E34" t="inlineStr">
         <is>
-          <t>ok</t>
+          <t>WARNING: Sen slope based on tied non-censored values</t>
         </is>
       </c>
       <c r="F34" t="n">
-        <v>0.0003096252245752</v>
+        <v>0.482484628356746</v>
       </c>
       <c r="G34" t="n">
-        <v>0</v>
+        <v>0.0056497175141242</v>
       </c>
       <c r="H34" t="n">
-        <v>0.855421686746988</v>
+        <v>0.649717514124294</v>
       </c>
       <c r="I34" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J34" t="n">
-        <v>0.2365</v>
+        <v>0.48</v>
       </c>
       <c r="K34" t="n">
-        <v>0.0070075758713942</v>
+        <v>0</v>
       </c>
       <c r="L34" t="n">
-        <v>0.0038857997370749</v>
+        <v>-0.0055127987251356</v>
       </c>
       <c r="M34" t="n">
-        <v>0.0110025102692834</v>
+        <v>0.0050738017099759</v>
       </c>
       <c r="N34" t="n">
-        <v>2.9630341950927</v>
+        <v>0</v>
       </c>
       <c r="O34" t="inlineStr">
         <is>
@@ -3506,7 +3506,7 @@
       </c>
       <c r="P34" t="inlineStr">
         <is>
-          <t>Exceptionally unlikely improving</t>
+          <t>As likely as not improving</t>
         </is>
       </c>
       <c r="Q34" t="n">
@@ -3549,14 +3549,14 @@
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>Total Nitrogen</t>
+          <t>Total Phosphorus</t>
         </is>
       </c>
       <c r="C35" t="n">
         <v>15</v>
       </c>
       <c r="D35" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E35" t="inlineStr">
         <is>
@@ -3564,31 +3564,31 @@
         </is>
       </c>
       <c r="F35" t="n">
-        <v>0.702248614520008</v>
+        <v>0.308568101316886</v>
       </c>
       <c r="G35" t="n">
-        <v>0.0060240963855421</v>
+        <v>0</v>
       </c>
       <c r="H35" t="n">
-        <v>0.662650602409639</v>
+        <v>0.627118644067797</v>
       </c>
       <c r="I35" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>0.478</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="K35" t="n">
-        <v>-0.0018352110495286</v>
+        <v>0.0003623511904761</v>
       </c>
       <c r="L35" t="n">
-        <v>-0.0072729795795358</v>
+        <v>-0.000855990966047</v>
       </c>
       <c r="M35" t="n">
-        <v>0.0045303583025399</v>
+        <v>0.0015432719617828</v>
       </c>
       <c r="N35" t="n">
-        <v>-0.383935366010173</v>
+        <v>0.517644557823128</v>
       </c>
       <c r="O35" t="inlineStr">
         <is>
@@ -3597,7 +3597,7 @@
       </c>
       <c r="P35" t="inlineStr">
         <is>
-          <t>Likely improving</t>
+          <t>Unlikely improving</t>
         </is>
       </c>
       <c r="Q35" t="n">
@@ -3640,7 +3640,7 @@
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>Total Phosphorus</t>
+          <t>Turbidity</t>
         </is>
       </c>
       <c r="C36" t="n">
@@ -3651,35 +3651,35 @@
       </c>
       <c r="E36" t="inlineStr">
         <is>
-          <t>WARNING: Sen slope based on tied non-censored values</t>
+          <t>ok</t>
         </is>
       </c>
       <c r="F36" t="n">
-        <v>0.467719121333127</v>
+        <v>0.839427987926191</v>
       </c>
       <c r="G36" t="n">
         <v>0</v>
       </c>
       <c r="H36" t="n">
-        <v>0.63855421686747</v>
+        <v>0.898305084745763</v>
       </c>
       <c r="I36" t="n">
         <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>0.0675</v>
+        <v>28.1</v>
       </c>
       <c r="K36" t="n">
-        <v>0</v>
+        <v>-0.381915437583173</v>
       </c>
       <c r="L36" t="n">
-        <v>-0.0012308780519941</v>
+        <v>-1.02213428879759</v>
       </c>
       <c r="M36" t="n">
-        <v>0.001332993191396</v>
+        <v>0.269976067505632</v>
       </c>
       <c r="N36" t="n">
-        <v>0</v>
+        <v>-1.35912967111449</v>
       </c>
       <c r="O36" t="inlineStr">
         <is>
@@ -3688,7 +3688,7 @@
       </c>
       <c r="P36" t="inlineStr">
         <is>
-          <t>As likely as not improving</t>
+          <t>Likely improving</t>
         </is>
       </c>
       <c r="Q36" t="n">
@@ -3718,97 +3718,6 @@
         </is>
       </c>
       <c r="W36" t="inlineStr">
-        <is>
-          <t>g/m3</t>
-        </is>
-      </c>
-    </row>
-    <row r="37">
-      <c r="A37" t="inlineStr">
-        <is>
-          <t>Whangaehu at Kauangaroa</t>
-        </is>
-      </c>
-      <c r="B37" t="inlineStr">
-        <is>
-          <t>Turbidity</t>
-        </is>
-      </c>
-      <c r="C37" t="n">
-        <v>15</v>
-      </c>
-      <c r="D37" t="b">
-        <v>0</v>
-      </c>
-      <c r="E37" t="inlineStr">
-        <is>
-          <t>ok</t>
-        </is>
-      </c>
-      <c r="F37" t="n">
-        <v>0.861360614936588</v>
-      </c>
-      <c r="G37" t="n">
-        <v>0</v>
-      </c>
-      <c r="H37" t="n">
-        <v>0.91566265060241</v>
-      </c>
-      <c r="I37" t="n">
-        <v>0</v>
-      </c>
-      <c r="J37" t="n">
-        <v>27.3</v>
-      </c>
-      <c r="K37" t="n">
-        <v>-0.433853006681514</v>
-      </c>
-      <c r="L37" t="n">
-        <v>-1.15302799819329</v>
-      </c>
-      <c r="M37" t="n">
-        <v>0.245426483043599</v>
-      </c>
-      <c r="N37" t="n">
-        <v>-1.58920515267954</v>
-      </c>
-      <c r="O37" t="inlineStr">
-        <is>
-          <t>RepSite</t>
-        </is>
-      </c>
-      <c r="P37" t="inlineStr">
-        <is>
-          <t>Likely improving</t>
-        </is>
-      </c>
-      <c r="Q37" t="n">
-        <v>1794370</v>
-      </c>
-      <c r="R37" t="n">
-        <v>5578002</v>
-      </c>
-      <c r="S37" t="inlineStr">
-        <is>
-          <t>Whanganui District</t>
-        </is>
-      </c>
-      <c r="T37" t="inlineStr">
-        <is>
-          <t>Whangaehu</t>
-        </is>
-      </c>
-      <c r="U37" t="inlineStr">
-        <is>
-          <t>Lower Whangaehu</t>
-        </is>
-      </c>
-      <c r="V37" t="inlineStr">
-        <is>
-          <t>Whau_3a</t>
-        </is>
-      </c>
-      <c r="W37" t="inlineStr">
         <is>
           <t>NTU/FNU</t>
         </is>

--- a/trend_results/Rivers/WhangaehuatKauangaroa_a8357d22ce.xlsx
+++ b/trend_results/Rivers/WhangaehuatKauangaroa_a8357d22ce.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="370" uniqueCount="62">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="370" uniqueCount="61">
   <si>
     <t>site name</t>
   </si>
@@ -124,9 +124,6 @@
     <t>Visual Clarity</t>
   </si>
   <si>
-    <t>WARNING: Sen slope based on tied non-censored values</t>
-  </si>
-  <si>
     <t>ok</t>
   </si>
   <si>
@@ -139,34 +136,34 @@
     <t>As likely as not increasing</t>
   </si>
   <si>
+    <t>Extremely unlikely improving</t>
+  </si>
+  <si>
+    <t>As likely as not improving</t>
+  </si>
+  <si>
+    <t>Very unlikely improving</t>
+  </si>
+  <si>
+    <t>Extremely likely improving</t>
+  </si>
+  <si>
+    <t>Unlikely improving</t>
+  </si>
+  <si>
+    <t>Likely increasing</t>
+  </si>
+  <si>
+    <t>Very likely improving</t>
+  </si>
+  <si>
     <t>Likely improving</t>
   </si>
   <si>
-    <t>Very unlikely improving</t>
+    <t>Unlikely increasing</t>
   </si>
   <si>
     <t>Exceptionally unlikely improving</t>
-  </si>
-  <si>
-    <t>Extremely unlikely improving</t>
-  </si>
-  <si>
-    <t>Unlikely increasing</t>
-  </si>
-  <si>
-    <t>Very likely increasing</t>
-  </si>
-  <si>
-    <t>Extremely likely improving</t>
-  </si>
-  <si>
-    <t>As likely as not improving</t>
-  </si>
-  <si>
-    <t>Unlikely improving</t>
-  </si>
-  <si>
-    <t>Likely increasing</t>
   </si>
   <si>
     <t>Virtually certain improving</t>
@@ -651,38 +648,38 @@
         <v>36</v>
       </c>
       <c r="F2">
-        <v>0.5</v>
+        <v>0.43737730138134</v>
       </c>
       <c r="G2">
         <v>0</v>
       </c>
       <c r="H2">
-        <v>0.946428571428571</v>
+        <v>0.945454545454545</v>
       </c>
       <c r="I2">
         <v>0</v>
       </c>
       <c r="J2">
-        <v>10.155</v>
+        <v>10.15</v>
       </c>
       <c r="K2">
-        <v>0</v>
+        <v>-0.0100897790055246</v>
       </c>
       <c r="L2">
-        <v>-0.0848427207161634</v>
+        <v>-0.103668020449647</v>
       </c>
       <c r="M2">
-        <v>0.0580364502751967</v>
+        <v>0.0545606929455497</v>
       </c>
       <c r="N2">
-        <v>0</v>
+        <v>-0.0994066897096024</v>
       </c>
       <c r="O2" t="s">
+        <v>38</v>
+      </c>
+      <c r="P2" t="s">
         <v>39</v>
       </c>
-      <c r="P2" t="s">
-        <v>40</v>
-      </c>
       <c r="Q2">
         <v>1794370</v>
       </c>
@@ -690,19 +687,19 @@
         <v>5578002</v>
       </c>
       <c r="S2" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="T2" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="U2" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="V2" t="s">
+        <v>55</v>
+      </c>
+      <c r="W2" t="s">
         <v>56</v>
-      </c>
-      <c r="W2" t="s">
-        <v>57</v>
       </c>
     </row>
     <row r="3" spans="1:23">
@@ -719,40 +716,40 @@
         <v>0</v>
       </c>
       <c r="E3" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="F3">
-        <v>0.819674470978541</v>
+        <v>0.0362745242582966</v>
       </c>
       <c r="G3">
         <v>0</v>
       </c>
       <c r="H3">
-        <v>0.431034482758621</v>
+        <v>0.396551724137931</v>
       </c>
       <c r="I3">
         <v>0</v>
       </c>
       <c r="J3">
-        <v>0.011</v>
+        <v>0.01</v>
       </c>
       <c r="K3">
-        <v>-0.0006057213930347999</v>
+        <v>0.0009270304568527</v>
       </c>
       <c r="L3">
-        <v>-0.0017204154735029</v>
+        <v>0</v>
       </c>
       <c r="M3">
-        <v>0.0004838713577095</v>
+        <v>0.0019293190349956</v>
       </c>
       <c r="N3">
-        <v>-5.50655811849842</v>
+        <v>9.270304568527919</v>
       </c>
       <c r="O3" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="P3" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="Q3">
         <v>1794370</v>
@@ -761,19 +758,19 @@
         <v>5578002</v>
       </c>
       <c r="S3" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="T3" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="U3" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="V3" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="W3" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
     </row>
     <row r="4" spans="1:23">
@@ -793,37 +790,37 @@
         <v>37</v>
       </c>
       <c r="F4">
-        <v>0.0916711322033196</v>
+        <v>0.584112350640518</v>
       </c>
       <c r="G4">
-        <v>0.210526315789474</v>
+        <v>0.236363636363636</v>
       </c>
       <c r="H4">
-        <v>0.684210526315789</v>
+        <v>0.709090909090909</v>
       </c>
       <c r="I4">
         <v>1</v>
       </c>
       <c r="J4">
-        <v>100</v>
+        <v>103.6</v>
       </c>
       <c r="K4">
-        <v>14.4461503576214</v>
+        <v>0</v>
       </c>
       <c r="L4">
-        <v>0</v>
+        <v>-18.9996018625153</v>
       </c>
       <c r="M4">
-        <v>48.5076632461732</v>
+        <v>14.7739752213143</v>
       </c>
       <c r="N4">
-        <v>14.4461503576214</v>
+        <v>0</v>
       </c>
       <c r="O4" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="P4" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="Q4">
         <v>1794370</v>
@@ -832,19 +829,19 @@
         <v>5578002</v>
       </c>
       <c r="S4" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="T4" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="U4" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="V4" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="W4" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
     <row r="5" spans="1:23">
@@ -861,40 +858,40 @@
         <v>0</v>
       </c>
       <c r="E5" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="F5">
-        <v>0.0075929778656318</v>
+        <v>0.0554405165619988</v>
       </c>
       <c r="G5">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="H5">
-        <v>0.5</v>
+        <v>0.903846153846154</v>
       </c>
       <c r="I5">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J5">
-        <v>0.009214993263490999</v>
+        <v>0.011027352110582</v>
       </c>
       <c r="K5">
-        <v>0</v>
+        <v>0.001346898904359</v>
       </c>
       <c r="L5">
-        <v>0</v>
+        <v>-1.44423848220793E-05</v>
       </c>
       <c r="M5">
-        <v>0.002182772816861</v>
+        <v>0.0025663527477884</v>
       </c>
       <c r="N5">
-        <v>0</v>
+        <v>12.2141642966721</v>
       </c>
       <c r="O5" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="P5" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="Q5">
         <v>1794370</v>
@@ -903,19 +900,19 @@
         <v>5578002</v>
       </c>
       <c r="S5" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="T5" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="U5" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="V5" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="W5" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
     </row>
     <row r="6" spans="1:23">
@@ -932,28 +929,28 @@
         <v>0</v>
       </c>
       <c r="E6" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="F6">
-        <v>0.86386029152013</v>
+        <v>0.972768071263763</v>
       </c>
       <c r="G6">
-        <v>0.431034482758621</v>
+        <v>0.517241379310345</v>
       </c>
       <c r="H6">
-        <v>0.137931034482759</v>
+        <v>0.120689655172414</v>
       </c>
       <c r="I6">
         <v>1</v>
       </c>
       <c r="J6">
-        <v>0.0025</v>
+        <v>0.001</v>
       </c>
       <c r="K6">
         <v>0</v>
       </c>
       <c r="L6">
-        <v>-0.0002338257893669</v>
+        <v>0</v>
       </c>
       <c r="M6">
         <v>0</v>
@@ -962,10 +959,10 @@
         <v>0</v>
       </c>
       <c r="O6" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="P6" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="Q6">
         <v>1794370</v>
@@ -974,19 +971,19 @@
         <v>5578002</v>
       </c>
       <c r="S6" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="T6" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="U6" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="V6" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="W6" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
     </row>
     <row r="7" spans="1:23">
@@ -1003,40 +1000,40 @@
         <v>1</v>
       </c>
       <c r="E7" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="F7">
-        <v>0.0326627202322875</v>
+        <v>0.5</v>
       </c>
       <c r="G7">
         <v>0</v>
       </c>
       <c r="H7">
-        <v>0.9655172413793101</v>
+        <v>0.913793103448276</v>
       </c>
       <c r="I7">
         <v>0</v>
       </c>
       <c r="J7">
-        <v>0.2585</v>
+        <v>0.23</v>
       </c>
       <c r="K7">
-        <v>0.0217536421223002</v>
+        <v>-0.0009845013477087999</v>
       </c>
       <c r="L7">
-        <v>0.001806928242116</v>
+        <v>-0.0151413543293977</v>
       </c>
       <c r="M7">
-        <v>0.037111712661646</v>
+        <v>0.008172824566144401</v>
       </c>
       <c r="N7">
-        <v>8.41533544382985</v>
+        <v>-0.428044064221256</v>
       </c>
       <c r="O7" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="P7" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="Q7">
         <v>1794370</v>
@@ -1045,19 +1042,19 @@
         <v>5578002</v>
       </c>
       <c r="S7" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="T7" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="U7" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="V7" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="W7" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
     </row>
     <row r="8" spans="1:23">
@@ -1074,41 +1071,41 @@
         <v>1</v>
       </c>
       <c r="E8" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="F8">
-        <v>0.14217314175292</v>
+        <v>0.343506672116683</v>
       </c>
       <c r="G8">
         <v>0</v>
       </c>
       <c r="H8">
-        <v>0.928571428571429</v>
+        <v>0.944444444444444</v>
       </c>
       <c r="I8">
         <v>0</v>
       </c>
       <c r="J8">
-        <v>7.05</v>
+        <v>6.99</v>
       </c>
       <c r="K8">
-        <v>-0.0802747252747253</v>
+        <v>-0.0399544211485871</v>
       </c>
       <c r="L8">
-        <v>-0.142531608994359</v>
+        <v>-0.132817900134635</v>
       </c>
       <c r="M8">
-        <v>0.0468422167334497</v>
+        <v>0.0766066892375422</v>
       </c>
       <c r="N8">
-        <v>-1.1386485854571</v>
+        <v>-0.57159400784817</v>
       </c>
       <c r="O8" t="s">
+        <v>38</v>
+      </c>
+      <c r="P8" t="s">
         <v>39</v>
       </c>
-      <c r="P8" t="s">
-        <v>45</v>
-      </c>
       <c r="Q8">
         <v>1794370</v>
       </c>
@@ -1116,16 +1113,16 @@
         <v>5578002</v>
       </c>
       <c r="S8" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="T8" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="U8" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="V8" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="9" spans="1:23">
@@ -1142,40 +1139,40 @@
         <v>1</v>
       </c>
       <c r="E9" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="F9">
-        <v>0.0162620906326638</v>
+        <v>0.356211124939333</v>
       </c>
       <c r="G9">
         <v>0</v>
       </c>
       <c r="H9">
-        <v>0.9655172413793101</v>
+        <v>0.982758620689655</v>
       </c>
       <c r="I9">
         <v>0</v>
       </c>
       <c r="J9">
-        <v>0.287</v>
+        <v>0.267</v>
       </c>
       <c r="K9">
-        <v>0.030450529948579</v>
+        <v>0.0045348465456941</v>
       </c>
       <c r="L9">
-        <v>0.007969858401828799</v>
+        <v>-0.0128971504322475</v>
       </c>
       <c r="M9">
-        <v>0.0456470065261721</v>
+        <v>0.0156071501712527</v>
       </c>
       <c r="N9">
-        <v>10.6099407486338</v>
+        <v>1.69844439913639</v>
       </c>
       <c r="O9" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="P9" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="Q9">
         <v>1794370</v>
@@ -1184,19 +1181,19 @@
         <v>5578002</v>
       </c>
       <c r="S9" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="T9" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="U9" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="V9" t="s">
+        <v>55</v>
+      </c>
+      <c r="W9" t="s">
         <v>56</v>
-      </c>
-      <c r="W9" t="s">
-        <v>57</v>
       </c>
     </row>
     <row r="10" spans="1:23">
@@ -1213,40 +1210,40 @@
         <v>1</v>
       </c>
       <c r="E10" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="F10">
-        <v>0.0696446828434242</v>
+        <v>0.383733986980362</v>
       </c>
       <c r="G10">
         <v>0.0172413793103448</v>
       </c>
       <c r="H10">
-        <v>0.810344827586207</v>
+        <v>0.758620689655172</v>
       </c>
       <c r="I10">
         <v>1</v>
       </c>
       <c r="J10">
-        <v>0.49</v>
+        <v>0.48</v>
       </c>
       <c r="K10">
-        <v>0.0374860220947884</v>
+        <v>0.0050310012806526</v>
       </c>
       <c r="L10">
-        <v>-0.0031236425471026</v>
+        <v>-0.0205774647887324</v>
       </c>
       <c r="M10">
-        <v>0.06683620231775669</v>
+        <v>0.0357868611324475</v>
       </c>
       <c r="N10">
-        <v>7.65020859077313</v>
+        <v>1.04812526680264</v>
       </c>
       <c r="O10" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="P10" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="Q10">
         <v>1794370</v>
@@ -1255,19 +1252,19 @@
         <v>5578002</v>
       </c>
       <c r="S10" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="T10" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="U10" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="V10" t="s">
+        <v>55</v>
+      </c>
+      <c r="W10" t="s">
         <v>56</v>
-      </c>
-      <c r="W10" t="s">
-        <v>57</v>
       </c>
     </row>
     <row r="11" spans="1:23">
@@ -1284,10 +1281,10 @@
         <v>0</v>
       </c>
       <c r="E11" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="F11">
-        <v>0.0004165157081471</v>
+        <v>0.139993089231118</v>
       </c>
       <c r="G11">
         <v>0</v>
@@ -1299,25 +1296,25 @@
         <v>0</v>
       </c>
       <c r="J11">
-        <v>0.06850000000000001</v>
+        <v>0.067</v>
       </c>
       <c r="K11">
-        <v>0.0115952380952381</v>
+        <v>0.0025767195767195</v>
       </c>
       <c r="L11">
-        <v>0.0051064342822326</v>
+        <v>-0.0016542225928728</v>
       </c>
       <c r="M11">
-        <v>0.0180626966132531</v>
+        <v>0.0109266850980689</v>
       </c>
       <c r="N11">
-        <v>16.9273548835592</v>
+        <v>3.84585011450683</v>
       </c>
       <c r="O11" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="P11" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="Q11">
         <v>1794370</v>
@@ -1326,19 +1323,19 @@
         <v>5578002</v>
       </c>
       <c r="S11" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="T11" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="U11" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="V11" t="s">
+        <v>55</v>
+      </c>
+      <c r="W11" t="s">
         <v>56</v>
-      </c>
-      <c r="W11" t="s">
-        <v>57</v>
       </c>
     </row>
     <row r="12" spans="1:23">
@@ -1355,16 +1352,16 @@
         <v>0</v>
       </c>
       <c r="E12" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="F12">
-        <v>0.0083089056844517</v>
+        <v>0.238504574649901</v>
       </c>
       <c r="G12">
         <v>0</v>
       </c>
       <c r="H12">
-        <v>0.931034482758621</v>
+        <v>0.948275862068966</v>
       </c>
       <c r="I12">
         <v>0</v>
@@ -1373,22 +1370,22 @@
         <v>20.85</v>
       </c>
       <c r="K12">
-        <v>4.15996569468268</v>
+        <v>1.50261075949367</v>
       </c>
       <c r="L12">
-        <v>1.03574735137672</v>
+        <v>-1.82784368923849</v>
       </c>
       <c r="M12">
-        <v>8.05137303130298</v>
+        <v>5.84661564752189</v>
       </c>
       <c r="N12">
-        <v>19.9518738354085</v>
+        <v>7.20676623258355</v>
       </c>
       <c r="O12" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="P12" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="Q12">
         <v>1794370</v>
@@ -1397,19 +1394,19 @@
         <v>5578002</v>
       </c>
       <c r="S12" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="T12" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="U12" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="V12" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="W12" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="13" spans="1:23">
@@ -1426,16 +1423,16 @@
         <v>0</v>
       </c>
       <c r="E13" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="F13">
-        <v>0.013343425584345</v>
+        <v>0.0507529028133</v>
       </c>
       <c r="G13">
-        <v>0.07526881720430111</v>
+        <v>0.0645161290322581</v>
       </c>
       <c r="H13">
-        <v>0.408602150537634</v>
+        <v>0.397849462365591</v>
       </c>
       <c r="I13">
         <v>2</v>
@@ -1444,22 +1441,22 @@
         <v>0.2</v>
       </c>
       <c r="K13">
-        <v>-0.0125196262715613</v>
+        <v>-0.0071090083210029</v>
       </c>
       <c r="L13">
-        <v>-0.0243525134244047</v>
+        <v>-0.0179938867071862</v>
       </c>
       <c r="M13">
-        <v>-0.001400784245555</v>
+        <v>0</v>
       </c>
       <c r="N13">
-        <v>-6.25981313578063</v>
+        <v>-3.55450416050149</v>
       </c>
       <c r="O13" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="P13" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="Q13">
         <v>1794370</v>
@@ -1468,19 +1465,19 @@
         <v>5578002</v>
       </c>
       <c r="S13" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="T13" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="U13" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="V13" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="W13" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="14" spans="1:23">
@@ -1497,40 +1494,40 @@
         <v>1</v>
       </c>
       <c r="E14" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="F14">
-        <v>0.904592556965598</v>
+        <v>0.83134010252338</v>
       </c>
       <c r="G14">
         <v>0</v>
       </c>
       <c r="H14">
-        <v>0.869565217391304</v>
+        <v>0.852173913043478</v>
       </c>
       <c r="I14">
         <v>0</v>
       </c>
       <c r="J14">
-        <v>10</v>
+        <v>10.02</v>
       </c>
       <c r="K14">
-        <v>0.0168373475732859</v>
+        <v>0.0115528641453518</v>
       </c>
       <c r="L14">
-        <v>-0.0066413059846264</v>
+        <v>-0.009997732418623499</v>
       </c>
       <c r="M14">
-        <v>0.0424938975562941</v>
+        <v>0.038342191772217</v>
       </c>
       <c r="N14">
-        <v>0.168373475732859</v>
+        <v>0.115298045362793</v>
       </c>
       <c r="O14" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="P14" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="Q14">
         <v>1794370</v>
@@ -1539,19 +1536,19 @@
         <v>5578002</v>
       </c>
       <c r="S14" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="T14" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="U14" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="V14" t="s">
+        <v>55</v>
+      </c>
+      <c r="W14" t="s">
         <v>56</v>
-      </c>
-      <c r="W14" t="s">
-        <v>57</v>
       </c>
     </row>
     <row r="15" spans="1:23">
@@ -1568,16 +1565,16 @@
         <v>0</v>
       </c>
       <c r="E15" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="F15">
-        <v>0.981340515045753</v>
+        <v>0.948531662628724</v>
       </c>
       <c r="G15">
         <v>0</v>
       </c>
       <c r="H15">
-        <v>0.254237288135593</v>
+        <v>0.26271186440678</v>
       </c>
       <c r="I15">
         <v>0</v>
@@ -1586,22 +1583,22 @@
         <v>0.013</v>
       </c>
       <c r="K15">
-        <v>-0.000487650200267</v>
+        <v>-0.0003350917431192</v>
       </c>
       <c r="L15">
-        <v>-0.0008553864168618</v>
+        <v>-0.0006791770949092</v>
       </c>
       <c r="M15">
         <v>0</v>
       </c>
       <c r="N15">
-        <v>-3.75115538666941</v>
+        <v>-2.57762879322512</v>
       </c>
       <c r="O15" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="P15" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="Q15">
         <v>1794370</v>
@@ -1610,19 +1607,19 @@
         <v>5578002</v>
       </c>
       <c r="S15" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="T15" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="U15" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="V15" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="W15" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
     </row>
     <row r="16" spans="1:23">
@@ -1639,40 +1636,40 @@
         <v>1</v>
       </c>
       <c r="E16" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="F16">
-        <v>0.650897145134216</v>
+        <v>0.8624452567734739</v>
       </c>
       <c r="G16">
-        <v>0.146551724137931</v>
+        <v>0.175438596491228</v>
       </c>
       <c r="H16">
-        <v>0.612068965517241</v>
+        <v>0.62280701754386</v>
       </c>
       <c r="I16">
         <v>1</v>
       </c>
       <c r="J16">
-        <v>98.5</v>
+        <v>101.8</v>
       </c>
       <c r="K16">
         <v>0</v>
       </c>
       <c r="L16">
-        <v>-2.43282789008617</v>
+        <v>-3.42522459590566</v>
       </c>
       <c r="M16">
-        <v>1.99326673578827</v>
+        <v>0</v>
       </c>
       <c r="N16">
         <v>0</v>
       </c>
       <c r="O16" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="P16" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="Q16">
         <v>1794370</v>
@@ -1681,19 +1678,19 @@
         <v>5578002</v>
       </c>
       <c r="S16" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="T16" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="U16" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="V16" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="W16" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
     <row r="17" spans="1:23">
@@ -1710,16 +1707,16 @@
         <v>0</v>
       </c>
       <c r="E17" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="F17">
-        <v>0.0004848889042782</v>
+        <v>0.0472312905760237</v>
       </c>
       <c r="G17">
-        <v>0.571428571428571</v>
+        <v>0.536363636363636</v>
       </c>
       <c r="H17">
-        <v>0.330357142857143</v>
+        <v>0.354545454545455</v>
       </c>
       <c r="I17">
         <v>3</v>
@@ -1740,10 +1737,10 @@
         <v>0</v>
       </c>
       <c r="O17" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="P17" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="Q17">
         <v>1794370</v>
@@ -1752,19 +1749,19 @@
         <v>5578002</v>
       </c>
       <c r="S17" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="T17" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="U17" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="V17" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="W17" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
     </row>
     <row r="18" spans="1:23">
@@ -1781,16 +1778,16 @@
         <v>0</v>
       </c>
       <c r="E18" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="F18">
-        <v>0.845507925899335</v>
+        <v>0.956641255057915</v>
       </c>
       <c r="G18">
-        <v>0.38135593220339</v>
+        <v>0.457627118644068</v>
       </c>
       <c r="H18">
-        <v>0.11864406779661</v>
+        <v>0.110169491525424</v>
       </c>
       <c r="I18">
         <v>1</v>
@@ -1811,10 +1808,10 @@
         <v>0</v>
       </c>
       <c r="O18" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="P18" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="Q18">
         <v>1794370</v>
@@ -1823,19 +1820,19 @@
         <v>5578002</v>
       </c>
       <c r="S18" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="T18" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="U18" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="V18" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="W18" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
     </row>
     <row r="19" spans="1:23">
@@ -1852,37 +1849,37 @@
         <v>1</v>
       </c>
       <c r="E19" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="F19">
-        <v>0.0161575330387729</v>
+        <v>0.298506421866036</v>
       </c>
       <c r="G19">
         <v>0</v>
       </c>
       <c r="H19">
-        <v>0.940677966101695</v>
+        <v>0.906779661016949</v>
       </c>
       <c r="I19">
         <v>0</v>
       </c>
       <c r="J19">
-        <v>0.2335</v>
+        <v>0.23</v>
       </c>
       <c r="K19">
-        <v>0.0066441613437983</v>
+        <v>0.0011248091410671</v>
       </c>
       <c r="L19">
-        <v>0.0011926864666972</v>
+        <v>-0.0020344131014031</v>
       </c>
       <c r="M19">
-        <v>0.0113359196713829</v>
+        <v>0.0036333596259105</v>
       </c>
       <c r="N19">
-        <v>2.84546524359673</v>
+        <v>0.489047452637907</v>
       </c>
       <c r="O19" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="P19" t="s">
         <v>44</v>
@@ -1894,19 +1891,19 @@
         <v>5578002</v>
       </c>
       <c r="S19" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="T19" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="U19" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="V19" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="W19" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
     </row>
     <row r="20" spans="1:23">
@@ -1923,40 +1920,40 @@
         <v>1</v>
       </c>
       <c r="E20" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="F20">
-        <v>0.489100371745103</v>
+        <v>0.297734371484202</v>
       </c>
       <c r="G20">
         <v>0</v>
       </c>
       <c r="H20">
-        <v>0.7826086956521739</v>
+        <v>0.84070796460177</v>
       </c>
       <c r="I20">
         <v>0</v>
       </c>
       <c r="J20">
-        <v>7.18</v>
+        <v>7.07</v>
       </c>
       <c r="K20">
-        <v>-0.0021367979719188</v>
+        <v>-0.0112346206425154</v>
       </c>
       <c r="L20">
-        <v>-0.0519945943861777</v>
+        <v>-0.0598559908351234</v>
       </c>
       <c r="M20">
-        <v>0.023498567167422</v>
+        <v>0.0151193962073386</v>
       </c>
       <c r="N20">
-        <v>-0.0297604174361963</v>
+        <v>-0.158905525353824</v>
       </c>
       <c r="O20" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="P20" t="s">
-        <v>40</v>
+        <v>48</v>
       </c>
       <c r="Q20">
         <v>1794370</v>
@@ -1965,16 +1962,16 @@
         <v>5578002</v>
       </c>
       <c r="S20" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="T20" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="U20" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="V20" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="21" spans="1:23">
@@ -1991,40 +1988,40 @@
         <v>1</v>
       </c>
       <c r="E21" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="F21">
-        <v>0.0044701152300603</v>
+        <v>0.317215750166764</v>
       </c>
       <c r="G21">
         <v>0</v>
       </c>
       <c r="H21">
-        <v>0.906779661016949</v>
+        <v>0.889830508474576</v>
       </c>
       <c r="I21">
         <v>0</v>
       </c>
       <c r="J21">
-        <v>0.2675</v>
+        <v>0.2615</v>
       </c>
       <c r="K21">
-        <v>0.0092632726687996</v>
+        <v>0.0014750178025973</v>
       </c>
       <c r="L21">
-        <v>0.0031805527050292</v>
+        <v>-0.0037316115847282</v>
       </c>
       <c r="M21">
-        <v>0.0148101440589268</v>
+        <v>0.007025752016186</v>
       </c>
       <c r="N21">
-        <v>3.46290567057932</v>
+        <v>0.5640603451614939</v>
       </c>
       <c r="O21" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="P21" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="Q21">
         <v>1794370</v>
@@ -2033,19 +2030,19 @@
         <v>5578002</v>
       </c>
       <c r="S21" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="T21" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="U21" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="V21" t="s">
+        <v>55</v>
+      </c>
+      <c r="W21" t="s">
         <v>56</v>
-      </c>
-      <c r="W21" t="s">
-        <v>57</v>
       </c>
     </row>
     <row r="22" spans="1:23">
@@ -2065,13 +2062,13 @@
         <v>36</v>
       </c>
       <c r="F22">
-        <v>0.5526687259941579</v>
+        <v>0.931026037685186</v>
       </c>
       <c r="G22">
         <v>0.008474576271186401</v>
       </c>
       <c r="H22">
-        <v>0.6949152542372879</v>
+        <v>0.610169491525424</v>
       </c>
       <c r="I22">
         <v>1</v>
@@ -2080,22 +2077,22 @@
         <v>0.481</v>
       </c>
       <c r="K22">
-        <v>0</v>
+        <v>-0.0059942578113427</v>
       </c>
       <c r="L22">
-        <v>-0.0083367531013785</v>
+        <v>-0.0187601873551053</v>
       </c>
       <c r="M22">
-        <v>0.008547716867835699</v>
+        <v>0</v>
       </c>
       <c r="N22">
-        <v>0</v>
+        <v>-1.2462074451856</v>
       </c>
       <c r="O22" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="P22" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="Q22">
         <v>1794370</v>
@@ -2104,19 +2101,19 @@
         <v>5578002</v>
       </c>
       <c r="S22" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="T22" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="U22" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="V22" t="s">
+        <v>55</v>
+      </c>
+      <c r="W22" t="s">
         <v>56</v>
-      </c>
-      <c r="W22" t="s">
-        <v>57</v>
       </c>
     </row>
     <row r="23" spans="1:23">
@@ -2133,37 +2130,37 @@
         <v>0</v>
       </c>
       <c r="E23" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="F23">
-        <v>0.0344362073927904</v>
+        <v>0.251433904791857</v>
       </c>
       <c r="G23">
         <v>0</v>
       </c>
       <c r="H23">
-        <v>0.686440677966102</v>
+        <v>0.711864406779661</v>
       </c>
       <c r="I23">
         <v>0</v>
       </c>
       <c r="J23">
-        <v>0.0645</v>
+        <v>0.064</v>
       </c>
       <c r="K23">
-        <v>0.0020417701863354</v>
+        <v>0.0006948319594166</v>
       </c>
       <c r="L23">
-        <v>0.0001643784134073</v>
+        <v>-0.0011495335560251</v>
       </c>
       <c r="M23">
-        <v>0.0042692028781594</v>
+        <v>0.0027462406015037</v>
       </c>
       <c r="N23">
-        <v>3.16553517261303</v>
+        <v>1.08567493658846</v>
       </c>
       <c r="O23" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="P23" t="s">
         <v>44</v>
@@ -2175,19 +2172,19 @@
         <v>5578002</v>
       </c>
       <c r="S23" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="T23" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="U23" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="V23" t="s">
+        <v>55</v>
+      </c>
+      <c r="W23" t="s">
         <v>56</v>
-      </c>
-      <c r="W23" t="s">
-        <v>57</v>
       </c>
     </row>
     <row r="24" spans="1:23">
@@ -2204,40 +2201,40 @@
         <v>0</v>
       </c>
       <c r="E24" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="F24">
-        <v>0.577453233659989</v>
+        <v>0.79945529620527</v>
       </c>
       <c r="G24">
         <v>0</v>
       </c>
       <c r="H24">
-        <v>0.923728813559322</v>
+        <v>0.932203389830508</v>
       </c>
       <c r="I24">
         <v>0</v>
       </c>
       <c r="J24">
-        <v>24.45</v>
+        <v>23.4</v>
       </c>
       <c r="K24">
-        <v>-0.141719576719577</v>
+        <v>-0.554417122040073</v>
       </c>
       <c r="L24">
-        <v>-1.24298233904125</v>
+        <v>-1.53553852576733</v>
       </c>
       <c r="M24">
-        <v>0.961474695338545</v>
+        <v>0.534434769680265</v>
       </c>
       <c r="N24">
-        <v>-0.579630170632216</v>
+        <v>-2.36930394034219</v>
       </c>
       <c r="O24" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="P24" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="Q24">
         <v>1794370</v>
@@ -2246,19 +2243,19 @@
         <v>5578002</v>
       </c>
       <c r="S24" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="T24" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="U24" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="V24" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="W24" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="25" spans="1:23">
@@ -2275,16 +2272,16 @@
         <v>0</v>
       </c>
       <c r="E25" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="F25">
-        <v>0.202507565372948</v>
+        <v>0.430410269703643</v>
       </c>
       <c r="G25">
         <v>0.0633802816901408</v>
       </c>
       <c r="H25">
-        <v>0.302816901408451</v>
+        <v>0.295774647887324</v>
       </c>
       <c r="I25">
         <v>2</v>
@@ -2296,19 +2293,19 @@
         <v>0</v>
       </c>
       <c r="L25">
-        <v>-0.0055518637825511</v>
+        <v>-0.0035286040151357</v>
       </c>
       <c r="M25">
-        <v>0</v>
+        <v>0.0026278270311846</v>
       </c>
       <c r="N25">
         <v>0</v>
       </c>
       <c r="O25" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="P25" t="s">
-        <v>49</v>
+        <v>41</v>
       </c>
       <c r="Q25">
         <v>1794370</v>
@@ -2317,19 +2314,19 @@
         <v>5578002</v>
       </c>
       <c r="S25" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="T25" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="U25" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="V25" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="W25" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="26" spans="1:23">
@@ -2346,40 +2343,40 @@
         <v>1</v>
       </c>
       <c r="E26" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="F26">
-        <v>0.815020520813527</v>
+        <v>0.842451503794541</v>
       </c>
       <c r="G26">
         <v>0</v>
       </c>
       <c r="H26">
-        <v>0.837209302325581</v>
+        <v>0.808139534883721</v>
       </c>
       <c r="I26">
         <v>0</v>
       </c>
       <c r="J26">
-        <v>9.895</v>
+        <v>9.904999999999999</v>
       </c>
       <c r="K26">
-        <v>0.0077228581477663</v>
+        <v>0.007966194111232399</v>
       </c>
       <c r="L26">
-        <v>-0.009945000888056599</v>
+        <v>-0.0060047828400943</v>
       </c>
       <c r="M26">
-        <v>0.0258211941791259</v>
+        <v>0.0264996539726465</v>
       </c>
       <c r="N26">
-        <v>0.07804808638470261</v>
+        <v>0.08042598799830861</v>
       </c>
       <c r="O26" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="P26" t="s">
-        <v>50</v>
+        <v>45</v>
       </c>
       <c r="Q26">
         <v>1794370</v>
@@ -2388,19 +2385,19 @@
         <v>5578002</v>
       </c>
       <c r="S26" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="T26" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="U26" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="V26" t="s">
+        <v>55</v>
+      </c>
+      <c r="W26" t="s">
         <v>56</v>
-      </c>
-      <c r="W26" t="s">
-        <v>57</v>
       </c>
     </row>
     <row r="27" spans="1:23">
@@ -2417,40 +2414,40 @@
         <v>0</v>
       </c>
       <c r="E27" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="F27">
-        <v>0.000356759772687</v>
+        <v>0.0066444223587527</v>
       </c>
       <c r="G27">
-        <v>0.163841807909605</v>
+        <v>0.146892655367232</v>
       </c>
       <c r="H27">
-        <v>0.163841807909605</v>
+        <v>0.169491525423729</v>
       </c>
       <c r="I27">
         <v>1</v>
       </c>
       <c r="J27">
-        <v>0.011</v>
+        <v>0.012</v>
       </c>
       <c r="K27">
-        <v>0.0003883867627219</v>
+        <v>0.0002985288606448</v>
       </c>
       <c r="L27">
-        <v>0.0001897168440998</v>
+        <v>0</v>
       </c>
       <c r="M27">
-        <v>0.0006062403845531001</v>
+        <v>0.0005217857142857</v>
       </c>
       <c r="N27">
-        <v>3.53078875201752</v>
+        <v>2.48774050537358</v>
       </c>
       <c r="O27" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="P27" t="s">
-        <v>43</v>
+        <v>49</v>
       </c>
       <c r="Q27">
         <v>1794370</v>
@@ -2459,19 +2456,19 @@
         <v>5578002</v>
       </c>
       <c r="S27" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="T27" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="U27" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="V27" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="W27" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
     </row>
     <row r="28" spans="1:23">
@@ -2488,40 +2485,40 @@
         <v>1</v>
       </c>
       <c r="E28" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="F28">
-        <v>0.996147633263134</v>
+        <v>0.994379471268526</v>
       </c>
       <c r="G28">
-        <v>0.102857142857143</v>
+        <v>0.121387283236994</v>
       </c>
       <c r="H28">
-        <v>0.645714285714286</v>
+        <v>0.653179190751445</v>
       </c>
       <c r="I28">
         <v>1</v>
       </c>
       <c r="J28">
-        <v>130</v>
+        <v>110</v>
       </c>
       <c r="K28">
-        <v>-3.82777164920022</v>
+        <v>-2.39639147074904</v>
       </c>
       <c r="L28">
-        <v>-8.82154190359277</v>
+        <v>-6.00189432945054</v>
       </c>
       <c r="M28">
-        <v>-1.05241156008496</v>
+        <v>-0.455221053424054</v>
       </c>
       <c r="N28">
-        <v>-2.94443973015402</v>
+        <v>-2.17853770068095</v>
       </c>
       <c r="O28" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="P28" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="Q28">
         <v>1794370</v>
@@ -2530,19 +2527,19 @@
         <v>5578002</v>
       </c>
       <c r="S28" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="T28" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="U28" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="V28" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="W28" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
     <row r="29" spans="1:23">
@@ -2559,16 +2556,16 @@
         <v>0</v>
       </c>
       <c r="E29" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="F29">
-        <v>0.0024010987521198</v>
+        <v>0.0232480466296462</v>
       </c>
       <c r="G29">
-        <v>0.591715976331361</v>
+        <v>0.574850299401198</v>
       </c>
       <c r="H29">
-        <v>0.337278106508876</v>
+        <v>0.341317365269461</v>
       </c>
       <c r="I29">
         <v>3</v>
@@ -2589,10 +2586,10 @@
         <v>0</v>
       </c>
       <c r="O29" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="P29" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="Q29">
         <v>1794370</v>
@@ -2601,19 +2598,19 @@
         <v>5578002</v>
       </c>
       <c r="S29" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="T29" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="U29" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="V29" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="W29" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
     </row>
     <row r="30" spans="1:23">
@@ -2630,16 +2627,16 @@
         <v>1</v>
       </c>
       <c r="E30" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="F30">
-        <v>0.0795686532627046</v>
+        <v>0.40067478334771</v>
       </c>
       <c r="G30">
-        <v>0.461077844311377</v>
+        <v>0.474576271186441</v>
       </c>
       <c r="H30">
-        <v>0.0898203592814371</v>
+        <v>0.0847457627118644</v>
       </c>
       <c r="I30">
         <v>2</v>
@@ -2660,10 +2657,10 @@
         <v>0</v>
       </c>
       <c r="O30" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="P30" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="Q30">
         <v>1794370</v>
@@ -2672,19 +2669,19 @@
         <v>5578002</v>
       </c>
       <c r="S30" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="T30" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="U30" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="V30" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="W30" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
     </row>
     <row r="31" spans="1:23">
@@ -2701,16 +2698,16 @@
         <v>1</v>
       </c>
       <c r="E31" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="F31">
-        <v>0.0004391942482039</v>
+        <v>0.012135849548601</v>
       </c>
       <c r="G31">
-        <v>0.0059880239520958</v>
+        <v>0.0056497175141242</v>
       </c>
       <c r="H31">
-        <v>0.922155688622755</v>
+        <v>0.909604519774011</v>
       </c>
       <c r="I31">
         <v>1</v>
@@ -2719,22 +2716,22 @@
         <v>0.2195</v>
       </c>
       <c r="K31">
-        <v>0.0051371438163382</v>
+        <v>0.0029343945810401</v>
       </c>
       <c r="L31">
-        <v>0.0027449895809742</v>
+        <v>0.001003434065934</v>
       </c>
       <c r="M31">
-        <v>0.0092727465955214</v>
+        <v>0.0050026087665354</v>
       </c>
       <c r="N31">
-        <v>2.34038442657779</v>
+        <v>1.33685402325293</v>
       </c>
       <c r="O31" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="P31" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="Q31">
         <v>1794370</v>
@@ -2743,19 +2740,19 @@
         <v>5578002</v>
       </c>
       <c r="S31" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="T31" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="U31" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="V31" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="W31" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
     </row>
     <row r="32" spans="1:23">
@@ -2772,40 +2769,40 @@
         <v>1</v>
       </c>
       <c r="E32" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="F32">
-        <v>0.01851857652566</v>
+        <v>0.011541770825151</v>
       </c>
       <c r="G32">
         <v>0</v>
       </c>
       <c r="H32">
-        <v>0.738372093023256</v>
+        <v>0.758823529411765</v>
       </c>
       <c r="I32">
         <v>0</v>
       </c>
       <c r="J32">
-        <v>7.245</v>
+        <v>7.255</v>
       </c>
       <c r="K32">
-        <v>-0.020888945535511</v>
+        <v>-0.0249076683077228</v>
       </c>
       <c r="L32">
-        <v>-0.0419899950090304</v>
+        <v>-0.0472953142024321</v>
       </c>
       <c r="M32">
-        <v>-0.0049850761723694</v>
+        <v>-0.0075039283507</v>
       </c>
       <c r="N32">
-        <v>-0.288322229613679</v>
+        <v>-0.343317275089218</v>
       </c>
       <c r="O32" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="P32" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="Q32">
         <v>1794370</v>
@@ -2814,16 +2811,16 @@
         <v>5578002</v>
       </c>
       <c r="S32" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="T32" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="U32" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="V32" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="33" spans="1:23">
@@ -2840,40 +2837,40 @@
         <v>1</v>
       </c>
       <c r="E33" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="F33">
-        <v>3.92603098341869E-05</v>
+        <v>0.0108253385290023</v>
       </c>
       <c r="G33">
         <v>0</v>
       </c>
       <c r="H33">
-        <v>0.903954802259887</v>
+        <v>0.88135593220339</v>
       </c>
       <c r="I33">
         <v>0</v>
       </c>
       <c r="J33">
-        <v>0.25</v>
+        <v>0.245</v>
       </c>
       <c r="K33">
-        <v>0.007913143453118599</v>
+        <v>0.0040915823667954</v>
       </c>
       <c r="L33">
-        <v>0.0046027926415087</v>
+        <v>0.001443127216851</v>
       </c>
       <c r="M33">
-        <v>0.0112680092093575</v>
+        <v>0.0073044416748425</v>
       </c>
       <c r="N33">
-        <v>3.16525738124745</v>
+        <v>1.67003361910019</v>
       </c>
       <c r="O33" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="P33" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="Q33">
         <v>1794370</v>
@@ -2882,19 +2879,19 @@
         <v>5578002</v>
       </c>
       <c r="S33" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="T33" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="U33" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="V33" t="s">
+        <v>55</v>
+      </c>
+      <c r="W33" t="s">
         <v>56</v>
-      </c>
-      <c r="W33" t="s">
-        <v>57</v>
       </c>
     </row>
     <row r="34" spans="1:23">
@@ -2914,13 +2911,13 @@
         <v>36</v>
       </c>
       <c r="F34">
-        <v>0.482484628356746</v>
+        <v>0.952449950442013</v>
       </c>
       <c r="G34">
         <v>0.0056497175141242</v>
       </c>
       <c r="H34">
-        <v>0.649717514124294</v>
+        <v>0.632768361581921</v>
       </c>
       <c r="I34">
         <v>1</v>
@@ -2929,22 +2926,22 @@
         <v>0.48</v>
       </c>
       <c r="K34">
-        <v>0</v>
+        <v>-0.00545379025161</v>
       </c>
       <c r="L34">
-        <v>-0.0055127987251356</v>
+        <v>-0.0120595381655715</v>
       </c>
       <c r="M34">
-        <v>0.0050738017099759</v>
+        <v>0</v>
       </c>
       <c r="N34">
-        <v>0</v>
+        <v>-1.13620630241876</v>
       </c>
       <c r="O34" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="P34" t="s">
-        <v>48</v>
+        <v>43</v>
       </c>
       <c r="Q34">
         <v>1794370</v>
@@ -2953,19 +2950,19 @@
         <v>5578002</v>
       </c>
       <c r="S34" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="T34" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="U34" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="V34" t="s">
+        <v>55</v>
+      </c>
+      <c r="W34" t="s">
         <v>56</v>
-      </c>
-      <c r="W34" t="s">
-        <v>57</v>
       </c>
     </row>
     <row r="35" spans="1:23">
@@ -2982,40 +2979,40 @@
         <v>0</v>
       </c>
       <c r="E35" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="F35">
-        <v>0.308568101316886</v>
+        <v>0.40229264103594</v>
       </c>
       <c r="G35">
         <v>0</v>
       </c>
       <c r="H35">
-        <v>0.627118644067797</v>
+        <v>0.632768361581921</v>
       </c>
       <c r="I35">
         <v>0</v>
       </c>
       <c r="J35">
-        <v>0.07000000000000001</v>
+        <v>0.066</v>
       </c>
       <c r="K35">
-        <v>0.0003623511904761</v>
+        <v>0.0001694325089561</v>
       </c>
       <c r="L35">
-        <v>-0.000855990966047</v>
+        <v>-0.0009910058728174</v>
       </c>
       <c r="M35">
-        <v>0.0015432719617828</v>
+        <v>0.0012862148455817</v>
       </c>
       <c r="N35">
-        <v>0.517644557823128</v>
+        <v>0.256715922660891</v>
       </c>
       <c r="O35" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="P35" t="s">
-        <v>49</v>
+        <v>41</v>
       </c>
       <c r="Q35">
         <v>1794370</v>
@@ -3024,19 +3021,19 @@
         <v>5578002</v>
       </c>
       <c r="S35" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="T35" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="U35" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="V35" t="s">
+        <v>55</v>
+      </c>
+      <c r="W35" t="s">
         <v>56</v>
-      </c>
-      <c r="W35" t="s">
-        <v>57</v>
       </c>
     </row>
     <row r="36" spans="1:23">
@@ -3053,40 +3050,40 @@
         <v>0</v>
       </c>
       <c r="E36" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="F36">
-        <v>0.839427987926191</v>
+        <v>0.883975423515499</v>
       </c>
       <c r="G36">
         <v>0</v>
       </c>
       <c r="H36">
-        <v>0.898305084745763</v>
+        <v>0.909604519774011</v>
       </c>
       <c r="I36">
         <v>0</v>
       </c>
       <c r="J36">
-        <v>28.1</v>
+        <v>26.5</v>
       </c>
       <c r="K36">
-        <v>-0.381915437583173</v>
+        <v>-0.443572243993061</v>
       </c>
       <c r="L36">
-        <v>-1.02213428879759</v>
+        <v>-1.10503873778852</v>
       </c>
       <c r="M36">
-        <v>0.269976067505632</v>
+        <v>0.186230735438361</v>
       </c>
       <c r="N36">
-        <v>-1.35912967111449</v>
+        <v>-1.67385752450212</v>
       </c>
       <c r="O36" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="P36" t="s">
-        <v>41</v>
+        <v>47</v>
       </c>
       <c r="Q36">
         <v>1794370</v>
@@ -3095,19 +3092,19 @@
         <v>5578002</v>
       </c>
       <c r="S36" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="T36" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="U36" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="V36" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="W36" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
   </sheetData>
